--- a/Interactive Entertainment.xlsx
+++ b/Interactive Entertainment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6AF6DE-DA62-4A50-9886-282691361626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966644DC-EBD6-9644-B40D-88BC28EA02BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29925" yWindow="765" windowWidth="27075" windowHeight="19080" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
+    <workbookView xWindow="-21240" yWindow="-17200" windowWidth="20020" windowHeight="19480" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Studios" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={FAF289D2-C39B-42A0-86D4-4CD8367FE77F}</author>
+    <author>tc={660DE7CB-7906-904C-8350-EEA9459997DA}</author>
+    <author>tc={5112C7F8-DD67-084D-B277-2C5896EA34B7}</author>
+    <author>tc={7DFDC712-AD36-244C-80C0-51008993A0FA}</author>
   </authors>
   <commentList>
     <comment ref="E19" authorId="0" shapeId="0" xr:uid="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
@@ -53,12 +56,36 @@
 US 8/22/1995</t>
       </text>
     </comment>
+    <comment ref="G71" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Average monthly players</t>
+      </text>
+    </comment>
+    <comment ref="G73" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</t>
+      </text>
+    </comment>
+    <comment ref="G84" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Average monthly players</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="275">
   <si>
     <t>Nightdive Studios</t>
   </si>
@@ -201,9 +228,6 @@
     <t>1P</t>
   </si>
   <si>
-    <t>MM</t>
-  </si>
-  <si>
     <t>Eve Online</t>
   </si>
   <si>
@@ -799,13 +823,103 @@
   </si>
   <si>
     <t>Fallout 76</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Tears of the Kingdom</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Single-Player</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto: San Andreas</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>Guitar Hero III</t>
+  </si>
+  <si>
+    <t>Madden NFL 09</t>
+  </si>
+  <si>
+    <t>Valve</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Facepunch</t>
+  </si>
+  <si>
+    <t>Gamecube</t>
+  </si>
+  <si>
+    <t>Grinding Gear Games</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>World of Warcraft</t>
+  </si>
+  <si>
+    <t>MMORPG</t>
+  </si>
+  <si>
+    <t>Half-Life II</t>
+  </si>
+  <si>
+    <t>Fortnite</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>1P/MP</t>
+  </si>
+  <si>
+    <t>Guild Wars</t>
+  </si>
+  <si>
+    <t>RuneScape</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls V: Skyrim</t>
+  </si>
+  <si>
+    <t>Bethesda</t>
+  </si>
+  <si>
+    <t>Deckbuilder</t>
+  </si>
+  <si>
+    <t>Hearthstone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -833,6 +947,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -854,11 +981,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -868,9 +992,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,6 +1325,15 @@
     <text>Japan 3/11/1995
 US 8/22/1995</text>
   </threadedComment>
+  <threadedComment ref="G71" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+    <text>Average monthly players</text>
+  </threadedComment>
+  <threadedComment ref="G73" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+    <text>https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</text>
+  </threadedComment>
+  <threadedComment ref="G84" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+    <text>Average monthly players</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1206,54 +1343,54 @@
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1265,61 +1402,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8CD114-2202-4E0E-9C28-26870C4C4139}">
-  <dimension ref="B2:G165"/>
+  <dimension ref="B2:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44294</v>
+      </c>
+      <c r="H3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1327,1297 +1483,1575 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="6">
+        <v>135</v>
+      </c>
+      <c r="E7" s="5">
         <v>39399</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
         <v>151</v>
       </c>
-      <c r="C9" t="s">
-        <v>152</v>
-      </c>
       <c r="D9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="6">
+        <v>148</v>
+      </c>
+      <c r="E9" s="5">
         <v>40834</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
         <v>139</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>140</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="6">
+        <v>45092</v>
+      </c>
+      <c r="F10" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="7">
-        <v>45092</v>
-      </c>
-      <c r="F10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="6">
+        <v>108</v>
+      </c>
+      <c r="E19" s="5">
         <v>34769</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
         <v>137</v>
       </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>33482</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="E34" s="5">
+        <v>34313</v>
+      </c>
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="5">
+        <v>41464</v>
+      </c>
+      <c r="G35" s="11">
+        <v>165</v>
+      </c>
+      <c r="H35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="H38">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="12">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="5">
+        <v>38272</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="G51" s="11">
+        <v>250</v>
+      </c>
+      <c r="H51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="5">
+        <v>37186</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="5">
+        <v>39567</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="5">
+        <v>41534</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G58" s="11">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>255</v>
+      </c>
+      <c r="G62" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" t="s">
+        <v>255</v>
+      </c>
+      <c r="G63" s="11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
         <v>246</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" s="6">
-        <v>38272</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>211</v>
-      </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="6">
-        <v>37186</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="6">
-        <v>39567</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
+        <v>247</v>
+      </c>
+      <c r="E72" s="5">
+        <v>45058</v>
+      </c>
+      <c r="F72" t="s">
+        <v>248</v>
+      </c>
+      <c r="G72" s="11">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" t="s">
         <v>148</v>
       </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55" s="6">
-        <v>41534</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="E73" s="5">
         <v>39748</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>175</v>
-      </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G73" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="5"/>
+      <c r="G74" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="G76" s="11">
+        <v>2.9940000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>270</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" s="5">
+        <v>44838</v>
+      </c>
+      <c r="G84" s="11">
+        <v>25</v>
+      </c>
+      <c r="H84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" s="5">
+        <v>41570</v>
+      </c>
+      <c r="G85" s="11">
+        <v>50</v>
+      </c>
+      <c r="H85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" s="5">
+        <v>40316</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" s="5">
+        <v>38650</v>
+      </c>
+      <c r="F98" t="s">
+        <v>248</v>
+      </c>
+      <c r="G98" s="11">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B99" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="10">
+        <v>38363</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G99" s="11">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B100" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" t="s">
+        <v>257</v>
+      </c>
+      <c r="D101" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="5">
+        <v>41619</v>
+      </c>
+      <c r="F101" t="s">
+        <v>144</v>
+      </c>
+      <c r="G101" s="11">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" t="s">
+        <v>140</v>
+      </c>
+      <c r="E120" s="5">
+        <v>40679</v>
+      </c>
+      <c r="F120" t="s">
+        <v>144</v>
+      </c>
+      <c r="G120" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>164</v>
+      </c>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" t="s">
+        <v>155</v>
+      </c>
+      <c r="D123" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" s="5">
+        <v>37192</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>197</v>
+      </c>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>217</v>
+      </c>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" s="5">
+        <v>40099</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84" t="s">
-        <v>149</v>
-      </c>
-      <c r="E84" s="6">
-        <v>40316</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>215</v>
-      </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>176</v>
-      </c>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E87" s="6">
-        <v>38650</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>212</v>
+      </c>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B131" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" s="5">
+        <v>38314</v>
+      </c>
+      <c r="F132" t="s">
+        <v>263</v>
+      </c>
+      <c r="G132" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B133" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B137" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B138" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G138" s="12">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B139" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G139" s="12">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B140" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="12">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B141" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G141" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B142" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G142" s="12">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B143" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G143" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B144" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B145" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" t="s">
-        <v>144</v>
-      </c>
-      <c r="D106" t="s">
-        <v>141</v>
-      </c>
-      <c r="E106" s="6">
-        <v>40679</v>
-      </c>
-      <c r="F106" t="s">
-        <v>145</v>
-      </c>
-      <c r="G106">
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B146" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G148" s="12"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B149" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B150" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B151" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>165</v>
-      </c>
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>244</v>
-      </c>
-      <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>155</v>
-      </c>
-      <c r="C109" t="s">
-        <v>156</v>
-      </c>
-      <c r="D109" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" s="6">
-        <v>37192</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>198</v>
-      </c>
-      <c r="E110" s="6"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>218</v>
-      </c>
-      <c r="E111" s="6"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>150</v>
-      </c>
-      <c r="D112" t="s">
-        <v>149</v>
-      </c>
-      <c r="E112" s="6">
-        <v>40099</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>221</v>
-      </c>
-      <c r="E113" s="6"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>213</v>
-      </c>
-      <c r="E114" s="6"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B117" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B118" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B122" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B123" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G123" s="1">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B124" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G124" s="1">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B125" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F125" s="2"/>
-      <c r="G125" s="1">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B126" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G126" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B127" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G127" s="1">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B128" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G128" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G129" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C131" s="2" t="s">
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="12"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B154" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="12"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B155" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="12"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B158" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="12"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B159" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B160" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B161" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="12"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B162" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="12"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B163" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="12"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B164" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="12"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B166" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1987</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="12"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B167" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="12"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B168" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="12"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B169" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B170" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C170">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B172" t="s">
+        <v>122</v>
+      </c>
+      <c r="E172" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B173" t="s">
+        <v>123</v>
+      </c>
+      <c r="E173" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B174" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" t="s">
+        <v>120</v>
+      </c>
+      <c r="E174" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B175" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B176" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E176" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C177">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B178" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E178" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B179" t="s">
         <v>117</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B138" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B140" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B142" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B143" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B144" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B145" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B146" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B147" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B148" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B149" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B150" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B151" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C151" s="2">
-        <v>1987</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B152" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B153" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B154" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B155" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C155">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>123</v>
-      </c>
-      <c r="E157" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
+      <c r="C179" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E179" t="s">
         <v>124</v>
       </c>
-      <c r="E158" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>120</v>
-      </c>
-      <c r="C159" t="s">
-        <v>121</v>
-      </c>
-      <c r="E159" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B160" s="2" t="s">
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B180" s="1" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E161" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C162">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E163" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>118</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E164" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2634,44 +3068,44 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2687,19 +3121,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -2717,61 +3151,61 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Interactive Entertainment.xlsx
+++ b/Interactive Entertainment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966644DC-EBD6-9644-B40D-88BC28EA02BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3AB2E0-F4A6-2C43-9992-B94AD515D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21240" yWindow="-17200" windowWidth="20020" windowHeight="19480" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="276">
   <si>
     <t>Nightdive Studios</t>
   </si>
@@ -910,6 +910,9 @@
   </si>
   <si>
     <t>Hearthstone</t>
+  </si>
+  <si>
+    <t>1P-4P</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1408,10 @@
   <dimension ref="B2:I180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1452,6 +1455,9 @@
       </c>
       <c r="E3" s="5">
         <v>44294</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
       </c>
       <c r="H3">
         <v>19.989999999999998</v>

--- a/Interactive Entertainment.xlsx
+++ b/Interactive Entertainment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3AB2E0-F4A6-2C43-9992-B94AD515D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81983B79-ACA2-48F7-9E15-9BAEF94B0B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21240" yWindow="-17200" windowWidth="20020" windowHeight="19480" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
+    <workbookView xWindow="2610" yWindow="465" windowWidth="27075" windowHeight="19080" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Studios" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>tc={7DFDC712-AD36-244C-80C0-51008993A0FA}</author>
   </authors>
   <commentList>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 US 8/22/1995</t>
       </text>
     </comment>
-    <comment ref="G71" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+    <comment ref="H79" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Average monthly players</t>
       </text>
     </comment>
-    <comment ref="G73" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+    <comment ref="H81" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</t>
       </text>
     </comment>
-    <comment ref="G84" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+    <comment ref="H92" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="311">
   <si>
     <t>Nightdive Studios</t>
   </si>
@@ -913,6 +913,111 @@
   </si>
   <si>
     <t>1P-4P</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God Exalt</t>
+  </si>
+  <si>
+    <t>Respawn</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Civilization V</t>
+  </si>
+  <si>
+    <t>1 billion hours</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Railroad Tycoon</t>
+  </si>
+  <si>
+    <t>Pirates!</t>
+  </si>
+  <si>
+    <t>C.P.U. Bach</t>
+  </si>
+  <si>
+    <t>SimGolf</t>
+  </si>
+  <si>
+    <t>Atari 600</t>
+  </si>
+  <si>
+    <t>Star Raiders</t>
+  </si>
+  <si>
+    <t>Acorn Software</t>
+  </si>
+  <si>
+    <t>Bought Sid Meier's first game.</t>
+  </si>
+  <si>
+    <t>Hellcat Ace</t>
+  </si>
+  <si>
+    <t>Sid Meier's first game</t>
+  </si>
+  <si>
+    <t>Sid Meier's first company</t>
+  </si>
+  <si>
+    <t>Chopper Rescue</t>
+  </si>
+  <si>
+    <t>early Sid Meier game</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>Floyd of the Jungle</t>
+  </si>
+  <si>
+    <t>platformer</t>
+  </si>
+  <si>
+    <t>Donkey Kong</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>Space Panic</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>4P</t>
+  </si>
+  <si>
+    <t>Asteroids</t>
+  </si>
+  <si>
+    <t>Atari</t>
+  </si>
+  <si>
+    <t>Gauntlet</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>Teenage Mutant Ninja Murtles</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>Space Invaders</t>
   </si>
 </sst>
 </file>
@@ -922,7 +1027,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -948,12 +1053,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -984,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -992,14 +1091,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1324,17 +1446,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E19" dT="2023-08-09T22:55:56.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
+  <threadedComment ref="F22" dT="2023-08-09T22:55:56.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
     <text>Japan 3/11/1995
 US 8/22/1995</text>
   </threadedComment>
-  <threadedComment ref="G71" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+  <threadedComment ref="H79" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
     <text>Average monthly players</text>
   </threadedComment>
-  <threadedComment ref="G73" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+  <threadedComment ref="H81" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
     <text>https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</text>
   </threadedComment>
-  <threadedComment ref="G84" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+  <threadedComment ref="H92" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
     <text>Average monthly players</text>
   </threadedComment>
 </ThreadedComments>
@@ -1342,60 +1464,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97F21BB-99CD-42B5-86F3-346A85CBB85C}">
-  <dimension ref="B2:B11"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -1405,25 +1548,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8CD114-2202-4E0E-9C28-26870C4C4139}">
-  <dimension ref="B2:I180"/>
+  <dimension ref="B2:K196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="11"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="7"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1431,1633 +1576,1874 @@
         <v>111</v>
       </c>
       <c r="D2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>250</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="9">
         <v>44294</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>275</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>19.989999999999998</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F4" s="9">
+        <v>42402</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="9">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="9">
         <v>39399</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>150</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>151</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F10" s="9">
         <v>40834</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>138</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>139</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F11" s="10">
         <v>45092</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+      <c r="F12" s="10">
+        <v>41489</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+      <c r="F13" s="10">
+        <v>41987</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>231</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="K21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>133</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E22" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F22" s="9">
         <v>34769</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H22" s="7">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>136</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E24" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F24" s="9">
         <v>33482</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="9">
+        <v>40442</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="K25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>228</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>162</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>299</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>110</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F39" s="9">
         <v>34313</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G39" t="s">
         <v>267</v>
       </c>
-      <c r="G34" s="11">
+      <c r="H39" s="7">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>188</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F40" s="9">
         <v>41464</v>
       </c>
-      <c r="G35" s="11">
+      <c r="H40" s="7">
         <v>165</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I40" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="12">
-        <v>20.5</v>
-      </c>
-      <c r="H38">
-        <v>59.99</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="12">
-        <v>10</v>
-      </c>
-      <c r="I42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F43" s="13"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="8">
+        <v>20.5</v>
+      </c>
+      <c r="I43">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F44" s="13"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F45" s="13"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
+      <c r="F46" s="13"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="8">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>159</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E52" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F52" s="9">
         <v>38272</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>210</v>
       </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G55" t="s">
+        <v>303</v>
+      </c>
+      <c r="K55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>206</v>
       </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>265</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C57" t="s">
         <v>266</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="G51" s="11">
+      <c r="F57" s="9"/>
+      <c r="H57" s="7">
         <v>250</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I57" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>191</v>
       </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>157</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C62" t="s">
         <v>158</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E62" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F62" s="9">
         <v>37186</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>146</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C63" t="s">
         <v>158</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E63" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F63" s="9">
         <v>39567</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>147</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C64" t="s">
         <v>158</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E64" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F64" s="9">
         <v>41534</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+      <c r="H64" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>251</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="F65" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="G58" s="11">
+      <c r="H65" s="7">
         <v>9.4</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>268</v>
       </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>253</v>
       </c>
-      <c r="G61" s="11">
+      <c r="H68" s="7">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B62" t="s">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>28</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C69" t="s">
         <v>255</v>
       </c>
-      <c r="G62" s="11">
+      <c r="H69" s="7">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>264</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C70" t="s">
         <v>255</v>
       </c>
-      <c r="G63" s="11">
+      <c r="H70" s="7">
         <v>6.5</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B65" s="1" t="s">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B66" s="1" t="s">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="8"/>
+      <c r="K75" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B69" s="1" t="s">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>27</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C78" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="11">
+      <c r="H78" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>36</v>
       </c>
-      <c r="G71" s="11">
+      <c r="H79" s="7">
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>246</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C80" t="s">
         <v>52</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E80" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="5">
+      <c r="F80" s="9">
         <v>45058</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G80" t="s">
         <v>248</v>
       </c>
-      <c r="G72" s="11">
+      <c r="H80" s="7">
         <v>18.5</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>152</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E81" t="s">
         <v>148</v>
       </c>
-      <c r="E73" s="5">
+      <c r="F81" s="9">
         <v>39748</v>
       </c>
-      <c r="G73" s="11">
+      <c r="H81" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>174</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="G74" s="11">
+      <c r="F82" s="9"/>
+      <c r="H82" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>254</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="G76" s="11">
+      <c r="F84" s="9"/>
+      <c r="H84" s="7">
         <v>2.9940000000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>270</v>
       </c>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>205</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C92" t="s">
         <v>260</v>
       </c>
-      <c r="E84" s="5">
+      <c r="F92" s="9">
         <v>44838</v>
       </c>
-      <c r="G84" s="11">
+      <c r="H92" s="7">
         <v>25</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I92" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>173</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C93" t="s">
         <v>259</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E93" t="s">
         <v>140</v>
       </c>
-      <c r="E85" s="5">
+      <c r="F93" s="9">
         <v>41570</v>
       </c>
-      <c r="G85" s="11">
+      <c r="H93" s="7">
         <v>50</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I93" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>276</v>
+      </c>
+      <c r="F105" s="9">
+        <v>40959</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>153</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E106" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="5">
+      <c r="F106" s="9">
         <v>40316</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>175</v>
       </c>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B98" t="s">
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C109" t="s">
         <v>116</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E109" t="s">
         <v>156</v>
       </c>
-      <c r="E98" s="5">
+      <c r="F109" s="9">
         <v>38650</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G109" t="s">
         <v>248</v>
       </c>
-      <c r="G98" s="11">
+      <c r="H109" s="7">
         <v>12.3</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B99" s="9" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C110" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E99" s="10">
+      <c r="F110" s="16">
         <v>38363</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="G110" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G99" s="11">
+      <c r="H110" s="7">
         <v>12.3</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B100" s="9" t="s">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B101" t="s">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>37</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C112" t="s">
         <v>257</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E112" t="s">
         <v>109</v>
       </c>
-      <c r="E101" s="5">
+      <c r="F112" s="9">
         <v>41619</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G112" t="s">
         <v>144</v>
       </c>
-      <c r="G101" s="11">
+      <c r="H112" s="7">
         <v>12.4</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B104" t="s">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B105" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B106" t="s">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B107" t="s">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B108" t="s">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="1" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1" t="s">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B110" s="1" t="s">
+      <c r="F121" s="13"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B111" t="s">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="13">
+        <v>1982</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B112" t="s">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B117" t="s">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B118" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B119" t="s">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>308</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
         <v>142</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C135" t="s">
         <v>143</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E135" t="s">
         <v>140</v>
       </c>
-      <c r="E120" s="5">
+      <c r="F135" s="9">
         <v>40679</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G135" t="s">
         <v>144</v>
       </c>
-      <c r="G120" s="11">
+      <c r="H135" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" t="s">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>164</v>
       </c>
-      <c r="E121" s="5"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B122" t="s">
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
         <v>243</v>
       </c>
-      <c r="E122" s="5"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B123" t="s">
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>154</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C138" t="s">
         <v>155</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E138" t="s">
         <v>156</v>
       </c>
-      <c r="E123" s="5">
+      <c r="F138" s="9">
         <v>37192</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B124" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
         <v>197</v>
       </c>
-      <c r="E124" s="5"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B125" t="s">
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
         <v>217</v>
       </c>
-      <c r="E125" s="5"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B126" t="s">
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
         <v>149</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E141" t="s">
         <v>148</v>
       </c>
-      <c r="E126" s="5">
+      <c r="F141" s="9">
         <v>40099</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" t="s">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
         <v>220</v>
       </c>
-      <c r="E127" s="5"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B128" t="s">
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
         <v>212</v>
       </c>
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B129" t="s">
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="1" t="s">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B132" s="1" t="s">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C147" t="s">
         <v>260</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E147" t="s">
         <v>140</v>
       </c>
-      <c r="E132" s="5">
+      <c r="F147" s="9">
         <v>38314</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G147" t="s">
         <v>263</v>
       </c>
-      <c r="G132" s="11">
+      <c r="H147" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J147" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B133" s="1" t="s">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B134" t="s">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B135" t="s">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B137" s="7" t="s">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B152" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B138" s="1" t="s">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D153" s="1"/>
+      <c r="E153" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F153" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G138" s="12">
+      <c r="H153" s="8">
         <v>760</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B139" s="1" t="s">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G139" s="12">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B140" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="12">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B141" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G141" s="12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B142" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G142" s="12">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B143" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G143" s="12">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B144" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G144" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G145" s="12"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B146" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G146" s="12"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="12"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B148" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G148" s="12"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B149" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G149" s="12"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B150" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G150" s="12"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="12"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="12"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B153" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G153" s="12"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B154" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="12"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F154" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H154" s="8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" s="3"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G155" s="12"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F155" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="12"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H156" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="12"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H157" s="8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="12"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H158" s="8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="12"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H159" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="12"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F160" s="13"/>
+      <c r="G160" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H160" s="8"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C161" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="12"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B162" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="F161" s="13"/>
+      <c r="G161" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H161" s="8"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="12"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F162" s="13"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="8"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="12"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F163" s="13"/>
+      <c r="G163" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H163" s="8"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="12"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F164" s="13"/>
+      <c r="G164" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H164" s="8"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="12"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F165" s="13"/>
+      <c r="G165" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H165" s="8"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C166" s="1">
-        <v>1987</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="12"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F166" s="13"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="8"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="12"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F167" s="13"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="8"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="12"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F168" s="13"/>
+      <c r="G168" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H168" s="8"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="8"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H170" s="8"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="8"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="8"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="8"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="8"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="8"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="8"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="8"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="8"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="8"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="8"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B181" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1987</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F181" s="13"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="8"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="8"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="8"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B170" s="1" t="s">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C170">
+      <c r="C185">
         <v>1997</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B172" t="s">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
         <v>122</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F187" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B173" t="s">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
         <v>123</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F188" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B174" t="s">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
         <v>119</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C189" t="s">
         <v>120</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F189" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="1" t="s">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B176" s="1" t="s">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F191" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B177" s="1" t="s">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C177">
+      <c r="C192">
         <v>1990</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B178" s="1" t="s">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F193" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B179" t="s">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
         <v>117</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C194" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E179" t="s">
+      <c r="D194" s="4"/>
+      <c r="F194" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B180" s="1" t="s">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E196" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3074,39 +3460,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>98</v>
       </c>
@@ -3127,19 +3513,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -3151,66 +3537,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51135378-F0BE-4A2C-9A9B-71DF43EFCFE3}">
-  <dimension ref="B2:B12"/>
+  <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>97</v>
       </c>
     </row>

--- a/Interactive Entertainment.xlsx
+++ b/Interactive Entertainment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81983B79-ACA2-48F7-9E15-9BAEF94B0B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796835C-0411-7845-96A4-F4A768225482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="465" windowWidth="27075" windowHeight="19080" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
+    <workbookView xWindow="-43200" yWindow="-4840" windowWidth="21600" windowHeight="18880" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Studios" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>tc={7DFDC712-AD36-244C-80C0-51008993A0FA}</author>
   </authors>
   <commentList>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 US 8/22/1995</t>
       </text>
     </comment>
-    <comment ref="H79" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+    <comment ref="H80" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Average monthly players</t>
       </text>
     </comment>
-    <comment ref="H81" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+    <comment ref="H82" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</t>
       </text>
     </comment>
-    <comment ref="H92" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+    <comment ref="H93" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="334">
   <si>
     <t>Nightdive Studios</t>
   </si>
@@ -1018,6 +1018,75 @@
   </si>
   <si>
     <t>Space Invaders</t>
+  </si>
+  <si>
+    <t>Squad</t>
+  </si>
+  <si>
+    <t>Offworld Industries</t>
+  </si>
+  <si>
+    <t>3PS</t>
+  </si>
+  <si>
+    <t>Universal Entertainment Japan</t>
+  </si>
+  <si>
+    <t>ColecoVision</t>
+  </si>
+  <si>
+    <t>Platformer</t>
+  </si>
+  <si>
+    <t>Considered the first platformer</t>
+  </si>
+  <si>
+    <t>Taito</t>
+  </si>
+  <si>
+    <t>Taito, Midway, Atari</t>
+  </si>
+  <si>
+    <t>Atari 2600, Atari 5200</t>
+  </si>
+  <si>
+    <t>Shoot Em Up</t>
+  </si>
+  <si>
+    <t>Breakout</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>Bungie</t>
+  </si>
+  <si>
+    <t>PS4, Xbox 1, Windows, PS5, Xbox X/S</t>
+  </si>
+  <si>
+    <t>1.6m MAU</t>
+  </si>
+  <si>
+    <t>bungi</t>
+  </si>
+  <si>
+    <t>Acquired by Sony for 3.6B</t>
+  </si>
+  <si>
+    <t>Zenimax</t>
+  </si>
+  <si>
+    <t>Acquired by Zenimax</t>
+  </si>
+  <si>
+    <t>id Software</t>
+  </si>
+  <si>
+    <t>Acquired by Microsoft</t>
+  </si>
+  <si>
+    <t>Riot Games</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -1100,19 +1169,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1123,6 +1186,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1446,17 +1521,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F22" dT="2023-08-09T22:55:56.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
+  <threadedComment ref="F23" dT="2023-08-09T22:55:56.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
     <text>Japan 3/11/1995
 US 8/22/1995</text>
   </threadedComment>
-  <threadedComment ref="H79" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+  <threadedComment ref="H80" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
     <text>Average monthly players</text>
   </threadedComment>
-  <threadedComment ref="H81" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+  <threadedComment ref="H82" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
     <text>https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</text>
   </threadedComment>
-  <threadedComment ref="H92" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+  <threadedComment ref="H93" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
     <text>Average monthly players</text>
   </threadedComment>
 </ThreadedComments>
@@ -1464,80 +1539,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97F21BB-99CD-42B5-86F3-346A85CBB85C}">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>289</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C22" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>136</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C23" t="s">
         <v>293</v>
       </c>
     </row>
@@ -1548,27 +1676,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8CD114-2202-4E0E-9C28-26870C4C4139}">
-  <dimension ref="B2:K196"/>
+  <dimension ref="B2:K198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C88" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G123" sqref="G123"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="7"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="7"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1728,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>237</v>
       </c>
@@ -1617,7 +1745,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>215</v>
       </c>
@@ -1625,7 +1753,7 @@
         <v>42402</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>167</v>
       </c>
@@ -1639,12 +1767,12 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1661,7 +1789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>304</v>
       </c>
@@ -1681,13 +1809,13 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>161</v>
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>150</v>
       </c>
@@ -1701,7 +1829,7 @@
         <v>40834</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>138</v>
       </c>
@@ -1711,495 +1839,518 @@
       <c r="E11" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>45092</v>
       </c>
       <c r="G11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>236</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>41489</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>41987</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>202</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>285</v>
       </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>239</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>231</v>
       </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>294</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>133</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>34769</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="7">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>238</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>136</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>33482</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>40442</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="K25" t="s">
+      <c r="G26" s="2"/>
+      <c r="K26" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>228</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>162</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" s="10">
+        <v>42984</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+      <c r="H36" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>299</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F39" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>110</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>110</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>34313</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>267</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H40" s="7">
         <v>3.5</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>188</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>255</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>41464</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H41" s="7">
         <v>165</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="8">
-        <v>20.5</v>
-      </c>
-      <c r="I43">
-        <v>59.99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="1"/>
       <c r="H44" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+        <v>20.5</v>
+      </c>
+      <c r="I44">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H45" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="13"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="1"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="8">
-        <v>10</v>
-      </c>
-      <c r="J47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E47" s="1"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="8">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="13"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="1"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="13"/>
+      <c r="F50" s="12"/>
       <c r="G50" s="1"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="13"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="1"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>159</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>160</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>38272</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>192</v>
       </c>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>210</v>
       </c>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>297</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F56" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>303</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K56" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>265</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="H57" s="7">
+      <c r="F58" s="9"/>
+      <c r="H58" s="7">
         <v>250</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I58" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>191</v>
       </c>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>168</v>
       </c>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>306</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F61" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
         <v>157</v>
-      </c>
-      <c r="C62" t="s">
-        <v>158</v>
-      </c>
-      <c r="E62" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="9">
-        <v>37186</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>146</v>
       </c>
       <c r="C63" t="s">
         <v>158</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F63" s="9">
-        <v>39567</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+        <v>37186</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
         <v>158</v>
@@ -2208,1241 +2359,1315 @@
         <v>148</v>
       </c>
       <c r="F64" s="9">
+        <v>39567</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="9">
         <v>41534</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H65" s="7">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
         <v>251</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F66" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H66" s="7">
         <v>9.4</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
         <v>268</v>
       </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
         <v>253</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H69" s="7">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
         <v>28</v>
-      </c>
-      <c r="C69" t="s">
-        <v>255</v>
-      </c>
-      <c r="H69" s="7">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>264</v>
       </c>
       <c r="C70" t="s">
         <v>255</v>
       </c>
       <c r="H70" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" t="s">
+        <v>255</v>
+      </c>
+      <c r="H71" s="7">
         <v>6.5</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="13"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="1"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="13"/>
+      <c r="F74" s="12"/>
       <c r="G74" s="1"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="15" t="s">
-        <v>296</v>
-      </c>
+      <c r="F75" s="12"/>
       <c r="G75" s="1"/>
       <c r="H75" s="8"/>
-      <c r="K75" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="13"/>
+      <c r="F76" s="13" t="s">
+        <v>296</v>
+      </c>
       <c r="G76" s="1"/>
       <c r="H76" s="8"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="13"/>
+      <c r="F77" s="12"/>
       <c r="G77" s="1"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
         <v>27</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>26</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H80" s="7">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
         <v>246</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>52</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>247</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>45058</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G81" t="s">
         <v>248</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="7">
         <v>18.5</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
         <v>152</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>148</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>39748</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H82" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
         <v>174</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="H82" s="7">
+      <c r="F83" s="9"/>
+      <c r="H83" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
         <v>170</v>
       </c>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>254</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="H84" s="7">
+      <c r="F85" s="9"/>
+      <c r="H85" s="7">
         <v>2.9940000000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>270</v>
       </c>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
         <v>205</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>260</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F93" s="9">
         <v>44838</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H93" s="7">
         <v>25</v>
-      </c>
-      <c r="I92" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>173</v>
-      </c>
-      <c r="C93" t="s">
-        <v>259</v>
-      </c>
-      <c r="E93" t="s">
-        <v>140</v>
-      </c>
-      <c r="F93" s="9">
-        <v>41570</v>
-      </c>
-      <c r="H93" s="7">
-        <v>50</v>
       </c>
       <c r="I93" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" t="s">
+        <v>259</v>
+      </c>
+      <c r="E94" t="s">
+        <v>140</v>
+      </c>
+      <c r="F94" s="9">
+        <v>41570</v>
+      </c>
+      <c r="H94" s="7">
+        <v>50</v>
+      </c>
+      <c r="I94" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
         <v>276</v>
       </c>
-      <c r="F105" s="9">
+      <c r="F106" s="9">
         <v>40959</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
         <v>153</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>148</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F107" s="9">
         <v>40316</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
         <v>214</v>
       </c>
-      <c r="F107" s="9"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
         <v>175</v>
       </c>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
         <v>9</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>116</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E110" t="s">
         <v>156</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F110" s="9">
         <v>38650</v>
       </c>
-      <c r="G109" t="s">
-        <v>248</v>
-      </c>
-      <c r="H109" s="7">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F110" s="16">
-        <v>38363</v>
-      </c>
-      <c r="G110" s="6" t="s">
+      <c r="G110" t="s">
         <v>248</v>
       </c>
       <c r="H110" s="7">
         <v>12.3</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F111" s="14">
+        <v>38363</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H111" s="7">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B112" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="6"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
         <v>37</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>257</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>109</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F113" s="9">
         <v>41619</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G113" t="s">
         <v>144</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H113" s="7">
         <v>12.4</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B122" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F121" s="13"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="8"/>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="13"/>
+      <c r="E122" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F122" s="12"/>
       <c r="G122" s="1"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="13">
-        <v>1982</v>
-      </c>
+      <c r="F123" s="12"/>
       <c r="G123" s="1"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F124" s="16">
+        <v>28581</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H124" s="8"/>
+      <c r="J124" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B125" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="15" t="s">
+      <c r="C125" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F125" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="G124" s="1"/>
-      <c r="H124" s="8"/>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+      <c r="G125" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" s="8"/>
+      <c r="J125" t="s">
+        <v>316</v>
+      </c>
+      <c r="K125" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
+      <c r="C126" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" t="s">
+        <v>247</v>
+      </c>
+      <c r="F126" s="9">
+        <v>44813</v>
+      </c>
+      <c r="H126" s="7">
+        <v>10.67</v>
+      </c>
+      <c r="J126" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" t="s">
+        <v>312</v>
+      </c>
+      <c r="E127" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" s="9">
+        <v>44097</v>
+      </c>
+      <c r="J127" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B132" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
         <v>308</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F135" s="15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
         <v>142</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C137" t="s">
         <v>143</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E137" t="s">
         <v>140</v>
       </c>
-      <c r="F135" s="9">
+      <c r="F137" s="9">
         <v>40679</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G137" t="s">
         <v>144</v>
       </c>
-      <c r="H135" s="7">
+      <c r="H137" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
         <v>164</v>
       </c>
-      <c r="F136" s="9"/>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
         <v>243</v>
       </c>
-      <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
         <v>154</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C140" t="s">
         <v>155</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E140" t="s">
         <v>156</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F140" s="9">
         <v>37192</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
         <v>197</v>
       </c>
-      <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
         <v>217</v>
       </c>
-      <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
         <v>149</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E143" t="s">
         <v>148</v>
       </c>
-      <c r="F141" s="9">
+      <c r="F143" s="9">
         <v>40099</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
         <v>220</v>
       </c>
-      <c r="F142" s="9"/>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
         <v>212</v>
       </c>
-      <c r="F143" s="9"/>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B146" s="1" t="s">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B148" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B147" s="1" t="s">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B149" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C149" t="s">
         <v>260</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E149" t="s">
         <v>140</v>
       </c>
-      <c r="F147" s="9">
+      <c r="F149" s="9">
         <v>38314</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G149" t="s">
         <v>263</v>
       </c>
-      <c r="H147" s="7">
+      <c r="H149" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J149" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" s="1" t="s">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B150" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" s="5" t="s">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B154" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" s="1" t="s">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B155" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1" t="s">
+      <c r="D155" s="1"/>
+      <c r="E155" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F153" s="13" t="s">
+      <c r="F155" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="G155" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H153" s="8">
+      <c r="H155" s="8">
         <v>760</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" s="1" t="s">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B156" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="13" t="s">
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G156" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H154" s="8">
+      <c r="H156" s="8">
         <v>495</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B155" s="1" t="s">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B157" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D155" s="3"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="13" t="s">
+      <c r="D157" s="3"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G155" s="1"/>
-      <c r="H155" s="8">
+      <c r="G157" s="1"/>
+      <c r="H157" s="8">
         <v>414</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="1" t="s">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B158" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F156" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H156" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D157" s="3"/>
-      <c r="E157" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H157" s="8">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="H158" s="8">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B159" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H159" s="8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B160" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H160" s="8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F159" s="13" t="s">
+      <c r="F161" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H159" s="8">
+      <c r="H161" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B160" s="1" t="s">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B162" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H160" s="8"/>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B161" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H161" s="8"/>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="1"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B163" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C163" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="13"/>
+      <c r="F163" s="12"/>
       <c r="G163" s="1" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B164" s="1" t="s">
-        <v>113</v>
-      </c>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="F164" s="12"/>
+      <c r="G164" s="1"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B165" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="13"/>
+      <c r="F165" s="12"/>
       <c r="G165" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B166" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="1"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B167" s="1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="1"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B168" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="F168" s="12"/>
+      <c r="G168" s="1"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B169" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="13"/>
+      <c r="F169" s="12"/>
       <c r="G169" s="1"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B170" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="13"/>
+      <c r="F170" s="12"/>
       <c r="G170" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B171" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="13"/>
+      <c r="F171" s="12"/>
       <c r="G171" s="1"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B172" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="1"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B173" s="1" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="13"/>
+      <c r="F173" s="12"/>
       <c r="G173" s="1"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B174" s="1" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="13"/>
+      <c r="F174" s="12"/>
       <c r="G174" s="1"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B175" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="13"/>
+      <c r="F175" s="12"/>
       <c r="G175" s="1"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B176" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="13"/>
+      <c r="F176" s="12"/>
       <c r="G176" s="1"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B177" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="13"/>
+      <c r="F177" s="12"/>
       <c r="G177" s="1"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="13"/>
+      <c r="F178" s="12"/>
       <c r="G178" s="1"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B179" s="1" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="13"/>
+      <c r="F179" s="12"/>
       <c r="G179" s="1"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="13"/>
+      <c r="F180" s="12"/>
       <c r="G180" s="1"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B181" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C181" s="1">
-        <v>1987</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F181" s="13"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="12"/>
       <c r="G181" s="1"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B182" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="13"/>
+      <c r="F182" s="12"/>
       <c r="G182" s="1"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B183" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C183" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1987</v>
+      </c>
       <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="13"/>
+      <c r="E183" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F183" s="12"/>
       <c r="G183" s="1"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B184" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="8"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B185" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="8"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B186" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B185" s="1" t="s">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B187" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C185">
+      <c r="C187">
         <v>1997</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B187" t="s">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B189" t="s">
         <v>122</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>123</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>119</v>
-      </c>
-      <c r="C189" t="s">
-        <v>120</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B190" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B191" s="1" t="s">
-        <v>125</v>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B190" t="s">
+        <v>123</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B191" t="s">
+        <v>119</v>
+      </c>
+      <c r="C191" t="s">
+        <v>120</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B192" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C192">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B193" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B194" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C194">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B195" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B196" t="s">
         <v>117</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C196" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D194" s="4"/>
-      <c r="F194" s="4" t="s">
+      <c r="D196" s="4"/>
+      <c r="F196" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B195" s="1" t="s">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B197" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B196" s="1" t="s">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B198" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E198" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3460,39 +3685,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>98</v>
       </c>
@@ -3513,19 +3738,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -3543,64 +3768,64 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>97</v>
       </c>

--- a/Interactive Entertainment.xlsx
+++ b/Interactive Entertainment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796835C-0411-7845-96A4-F4A768225482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE6F7C0-D290-B247-AE5B-6BA8A80A3B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43200" yWindow="-4840" windowWidth="21600" windowHeight="18880" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
+    <workbookView xWindow="-43220" yWindow="-4840" windowWidth="21600" windowHeight="18880" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Studios" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 US 8/22/1995</t>
       </text>
     </comment>
-    <comment ref="H80" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+    <comment ref="H81" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Average monthly players</t>
       </text>
     </comment>
-    <comment ref="H82" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+    <comment ref="H83" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</t>
       </text>
     </comment>
-    <comment ref="H93" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+    <comment ref="H94" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="335">
   <si>
     <t>Nightdive Studios</t>
   </si>
@@ -1087,6 +1087,9 @@
   </si>
   <si>
     <t>Riot Games</t>
+  </si>
+  <si>
+    <t>Clash Royale</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -1188,9 +1191,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1525,13 +1525,13 @@
     <text>Japan 3/11/1995
 US 8/22/1995</text>
   </threadedComment>
-  <threadedComment ref="H80" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+  <threadedComment ref="H81" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
     <text>Average monthly players</text>
   </threadedComment>
-  <threadedComment ref="H82" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+  <threadedComment ref="H83" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
     <text>https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</text>
   </threadedComment>
-  <threadedComment ref="H93" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+  <threadedComment ref="H94" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
     <text>Average monthly players</text>
   </threadedComment>
 </ThreadedComments>
@@ -1541,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97F21BB-99CD-42B5-86F3-346A85CBB85C}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1676,18 +1676,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8CD114-2202-4E0E-9C28-26870C4C4139}">
-  <dimension ref="B2:K198"/>
+  <dimension ref="B2:K199"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" style="4" customWidth="1"/>
@@ -1887,7 +1888,7 @@
       <c r="C17" t="s">
         <v>305</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="11" t="s">
         <v>323</v>
       </c>
     </row>
@@ -1947,238 +1948,234 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="9">
-        <v>33482</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>280</v>
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
       </c>
       <c r="F26" s="9">
-        <v>40442</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="K26" t="s">
-        <v>281</v>
+        <v>33482</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="9"/>
+        <v>280</v>
+      </c>
+      <c r="F27" s="9">
+        <v>40442</v>
+      </c>
       <c r="G27" s="2"/>
+      <c r="K27" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>224</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" t="s">
-        <v>324</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" t="s">
-        <v>325</v>
-      </c>
-      <c r="F35" s="10">
-        <v>42984</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="I35" t="s">
-        <v>256</v>
-      </c>
-      <c r="J35" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>327</v>
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
+      <c r="D36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F36" s="10">
+        <v>42984</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>218</v>
+        <v>12</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>299</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>300</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="9">
-        <v>34313</v>
-      </c>
-      <c r="G40" t="s">
-        <v>267</v>
-      </c>
-      <c r="H40" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="J40" t="s">
-        <v>65</v>
+        <v>299</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>255</v>
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>109</v>
       </c>
       <c r="F41" s="9">
-        <v>41464</v>
+        <v>34313</v>
+      </c>
+      <c r="G41" t="s">
+        <v>267</v>
       </c>
       <c r="H41" s="7">
-        <v>165</v>
-      </c>
-      <c r="I41" t="s">
-        <v>256</v>
+        <v>3.5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>240</v>
+        <v>188</v>
+      </c>
+      <c r="C42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="9">
+        <v>41464</v>
+      </c>
+      <c r="H42" s="7">
+        <v>165</v>
+      </c>
+      <c r="I42" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="8">
-        <v>20.5</v>
-      </c>
-      <c r="I44">
-        <v>59.99</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>272</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="12"/>
       <c r="G45" s="1"/>
       <c r="H45" s="8">
-        <v>60</v>
+        <v>20.5</v>
+      </c>
+      <c r="I45">
+        <v>59.99</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8">
+        <v>60</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2189,38 +2186,38 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="8">
-        <v>10</v>
-      </c>
-      <c r="J48" t="s">
-        <v>141</v>
-      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F49" s="12"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="8"/>
+      <c r="G49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" s="8">
+        <v>10</v>
+      </c>
+      <c r="J49" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2231,7 +2228,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2242,7 +2239,7 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2252,119 +2249,116 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53" s="9">
-        <v>38272</v>
-      </c>
+      <c r="B53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>192</v>
-      </c>
-      <c r="F54" s="9"/>
+        <v>159</v>
+      </c>
+      <c r="E54" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="9">
+        <v>38272</v>
+      </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>297</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G56" t="s">
-        <v>303</v>
-      </c>
-      <c r="K56" t="s">
-        <v>298</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57" s="9"/>
+        <v>297</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" t="s">
+        <v>303</v>
+      </c>
+      <c r="K57" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F58" s="9"/>
-      <c r="H58" s="7">
-        <v>250</v>
-      </c>
-      <c r="I58" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>191</v>
+        <v>265</v>
+      </c>
+      <c r="C59" t="s">
+        <v>266</v>
       </c>
       <c r="F59" s="9"/>
+      <c r="H59" s="7">
+        <v>250</v>
+      </c>
+      <c r="I59" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>306</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>307</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>22</v>
+        <v>306</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" t="s">
-        <v>158</v>
-      </c>
-      <c r="E63" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" s="9">
-        <v>37186</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
         <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F64" s="9">
-        <v>39567</v>
+        <v>37186</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
         <v>158</v>
@@ -2373,83 +2367,86 @@
         <v>148</v>
       </c>
       <c r="F65" s="9">
-        <v>41534</v>
-      </c>
-      <c r="H65" s="7">
-        <v>185</v>
+        <v>39567</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>251</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>252</v>
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="9">
+        <v>41534</v>
       </c>
       <c r="H66" s="7">
-        <v>9.4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>268</v>
-      </c>
-      <c r="F67" s="11"/>
+        <v>251</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H67" s="7">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>10</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>253</v>
-      </c>
-      <c r="H69" s="7">
-        <v>8.1999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H70" s="7">
-        <v>9.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
         <v>255</v>
       </c>
       <c r="H71" s="7">
-        <v>6.5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="H72" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B73" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2460,7 +2457,7 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2471,34 +2468,34 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="13" t="s">
-        <v>296</v>
-      </c>
+      <c r="F76" s="12"/>
       <c r="G76" s="1"/>
       <c r="H76" s="8"/>
-      <c r="K76" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="12"/>
+      <c r="F77" s="13" t="s">
+        <v>296</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="8"/>
+      <c r="K77" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2508,150 +2505,141 @@
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="7">
-        <v>17</v>
-      </c>
+      <c r="B79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
       </c>
       <c r="H80" s="7">
-        <v>153</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-      <c r="E81" t="s">
-        <v>247</v>
-      </c>
-      <c r="F81" s="9">
-        <v>45058</v>
-      </c>
-      <c r="G81" t="s">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="H81" s="7">
-        <v>18.5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>152</v>
+        <v>246</v>
+      </c>
+      <c r="C82" t="s">
+        <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="F82" s="9">
-        <v>39748</v>
+        <v>45058</v>
+      </c>
+      <c r="G82" t="s">
+        <v>248</v>
       </c>
       <c r="H82" s="7">
-        <v>1.3</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>174</v>
-      </c>
-      <c r="F83" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="E83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="9">
+        <v>39748</v>
+      </c>
       <c r="H83" s="7">
-        <v>16</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F84" s="9"/>
+      <c r="H84" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="F85" s="9"/>
-      <c r="H85" s="7">
-        <v>2.9940000000000002</v>
-      </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F86" s="9"/>
+      <c r="H86" s="7">
+        <v>2.9940000000000002</v>
+      </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>11</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C93" t="s">
-        <v>260</v>
-      </c>
-      <c r="F93" s="9">
-        <v>44838</v>
-      </c>
-      <c r="H93" s="7">
-        <v>25</v>
-      </c>
-      <c r="I93" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
-      </c>
-      <c r="E94" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="F94" s="9">
-        <v>41570</v>
+        <v>44838</v>
       </c>
       <c r="H94" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s">
         <v>256</v>
@@ -2659,125 +2647,124 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="C95" t="s">
+        <v>259</v>
+      </c>
+      <c r="E95" t="s">
+        <v>140</v>
+      </c>
+      <c r="F95" s="9">
+        <v>41570</v>
+      </c>
+      <c r="H95" s="7">
+        <v>50</v>
+      </c>
+      <c r="I95" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>276</v>
-      </c>
-      <c r="F106" s="9">
-        <v>40959</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>153</v>
-      </c>
-      <c r="E107" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="F107" s="9">
-        <v>40316</v>
+        <v>40959</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>214</v>
-      </c>
-      <c r="F108" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="E108" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" s="9">
+        <v>40316</v>
+      </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="F109" s="9"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
+        <v>175</v>
+      </c>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
         <v>9</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>116</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" t="s">
         <v>156</v>
       </c>
-      <c r="F110" s="9">
+      <c r="F111" s="9">
         <v>38650</v>
       </c>
-      <c r="G110" t="s">
-        <v>248</v>
-      </c>
-      <c r="H110" s="7">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B111" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F111" s="14">
-        <v>38363</v>
-      </c>
-      <c r="G111" s="6" t="s">
+      <c r="G111" t="s">
         <v>248</v>
       </c>
       <c r="H111" s="7">
@@ -2786,568 +2773,576 @@
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F112" s="14">
+        <v>38363</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H112" s="7">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B113" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="6"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
-        <v>37</v>
-      </c>
-      <c r="C113" t="s">
-        <v>257</v>
-      </c>
-      <c r="E113" t="s">
-        <v>109</v>
-      </c>
-      <c r="F113" s="9">
-        <v>41619</v>
-      </c>
-      <c r="G113" t="s">
-        <v>144</v>
-      </c>
-      <c r="H113" s="7">
-        <v>12.4</v>
-      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="C114" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" t="s">
+        <v>109</v>
+      </c>
+      <c r="F114" s="9">
+        <v>41619</v>
+      </c>
+      <c r="G114" t="s">
+        <v>144</v>
+      </c>
+      <c r="H114" s="7">
+        <v>12.4</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B122" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F122" s="12"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F123" s="12"/>
       <c r="G123" s="1"/>
       <c r="H123" s="8"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F124" s="16">
-        <v>28581</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="1"/>
       <c r="H124" s="8"/>
-      <c r="J124" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>302</v>
+        <v>320</v>
+      </c>
+      <c r="F125" s="16">
+        <v>28581</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H125" s="8"/>
       <c r="J125" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B126" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H126" s="8"/>
+      <c r="J126" t="s">
         <v>316</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K126" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B126" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" t="s">
-        <v>52</v>
-      </c>
-      <c r="D126" t="s">
-        <v>52</v>
-      </c>
-      <c r="E126" t="s">
-        <v>247</v>
-      </c>
-      <c r="F126" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H126" s="7">
-        <v>10.67</v>
-      </c>
-      <c r="J126" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>311</v>
+        <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>312</v>
+        <v>52</v>
+      </c>
+      <c r="D127" t="s">
+        <v>52</v>
       </c>
       <c r="E127" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="F127" s="9">
-        <v>44097</v>
+        <v>44813</v>
+      </c>
+      <c r="H127" s="7">
+        <v>10.67</v>
       </c>
       <c r="J127" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>227</v>
+        <v>311</v>
+      </c>
+      <c r="C128" t="s">
+        <v>312</v>
+      </c>
+      <c r="E128" t="s">
+        <v>140</v>
+      </c>
+      <c r="F128" s="9">
+        <v>44097</v>
+      </c>
+      <c r="J128" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>308</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>195</v>
+        <v>308</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>142</v>
-      </c>
-      <c r="C137" t="s">
-        <v>143</v>
-      </c>
-      <c r="E137" t="s">
-        <v>140</v>
-      </c>
-      <c r="F137" s="9">
-        <v>40679</v>
-      </c>
-      <c r="G137" t="s">
-        <v>144</v>
-      </c>
-      <c r="H137" s="7">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>164</v>
-      </c>
-      <c r="F138" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="C138" t="s">
+        <v>143</v>
+      </c>
+      <c r="E138" t="s">
+        <v>140</v>
+      </c>
+      <c r="F138" s="9">
+        <v>40679</v>
+      </c>
+      <c r="G138" t="s">
+        <v>144</v>
+      </c>
+      <c r="H138" s="7">
+        <v>44</v>
+      </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="F139" s="9"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>154</v>
-      </c>
-      <c r="C140" t="s">
-        <v>155</v>
-      </c>
-      <c r="E140" t="s">
-        <v>156</v>
-      </c>
-      <c r="F140" s="9">
-        <v>37192</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F140" s="9"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>197</v>
-      </c>
-      <c r="F141" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="C141" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" t="s">
+        <v>156</v>
+      </c>
+      <c r="F141" s="9">
+        <v>37192</v>
+      </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F142" s="9"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>149</v>
-      </c>
-      <c r="E143" t="s">
-        <v>148</v>
-      </c>
-      <c r="F143" s="9">
-        <v>40099</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="F143" s="9"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>220</v>
-      </c>
-      <c r="F144" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="E144" t="s">
+        <v>148</v>
+      </c>
+      <c r="F144" s="9">
+        <v>40099</v>
+      </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F145" s="9"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>177</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="F146" s="9"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B148" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C149" t="s">
-        <v>260</v>
-      </c>
-      <c r="E149" t="s">
-        <v>140</v>
-      </c>
-      <c r="F149" s="9">
-        <v>38314</v>
-      </c>
-      <c r="G149" t="s">
-        <v>263</v>
-      </c>
-      <c r="H149" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J149" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B150" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C150" t="s">
+        <v>260</v>
+      </c>
+      <c r="E150" t="s">
+        <v>140</v>
+      </c>
+      <c r="F150" s="9">
+        <v>38314</v>
+      </c>
+      <c r="G150" t="s">
+        <v>263</v>
+      </c>
+      <c r="H150" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J150" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B151" s="1" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B151" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B154" s="5" t="s">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B155" s="5" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B155" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H155" s="8">
-        <v>760</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B156" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C156" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
+      <c r="E156" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F156" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H156" s="8">
-        <v>495</v>
+        <v>760</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B157" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D157" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G157" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H157" s="8">
-        <v>414</v>
+        <v>495</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B158" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D158" s="3"/>
-      <c r="E158" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E158" s="1"/>
       <c r="F158" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G158" s="1"/>
       <c r="H158" s="8">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B159" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="H159" s="8">
-        <v>370</v>
+        <v>400</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B160" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H160" s="8">
-        <v>238</v>
+        <v>370</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B161" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H161" s="8">
-        <v>60</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B162" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H162" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H162" s="8">
+        <v>60</v>
+      </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B163" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="12"/>
-      <c r="G163" s="1" t="s">
-        <v>45</v>
+      <c r="G163" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H163" s="8"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="B164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="12"/>
-      <c r="G164" s="1"/>
+      <c r="G164" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H164" s="8"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B165" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="12"/>
-      <c r="G165" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G165" s="1"/>
       <c r="H165" s="8"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B166" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3360,7 +3355,7 @@
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B167" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3373,18 +3368,20 @@
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B168" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="12"/>
-      <c r="G168" s="1"/>
+      <c r="G168" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H168" s="8"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B169" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3395,55 +3392,55 @@
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B170" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="12"/>
-      <c r="G170" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G170" s="1"/>
       <c r="H170" s="8"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B171" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="12"/>
-      <c r="G171" s="1"/>
+      <c r="G171" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H171" s="8"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B172" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="12"/>
-      <c r="G172" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G172" s="1"/>
       <c r="H172" s="8"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B173" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="12"/>
-      <c r="G173" s="1"/>
+      <c r="G173" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H173" s="8"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B174" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3454,7 +3451,7 @@
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B175" s="1" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3465,7 +3462,7 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B176" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3476,7 +3473,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B177" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3487,7 +3484,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3498,7 +3495,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B179" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3509,7 +3506,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3520,7 +3517,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B181" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3531,7 +3528,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B182" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3542,33 +3539,33 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B183" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C183" s="1">
-        <v>1987</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="E183" s="1"/>
       <c r="F183" s="12"/>
       <c r="G183" s="1"/>
       <c r="H183" s="8"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B184" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C184" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1987</v>
+      </c>
       <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
+      <c r="E184" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F184" s="12"/>
       <c r="G184" s="1"/>
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B185" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -3579,28 +3576,31 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B186" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="8"/>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B187" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B188" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C187">
+      <c r="C188">
         <v>1997</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B189" t="s">
-        <v>122</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>124</v>
@@ -3608,66 +3608,74 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
-        <v>119</v>
-      </c>
-      <c r="C191" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B192" s="1" t="s">
-        <v>105</v>
+      <c r="B192" t="s">
+        <v>119</v>
+      </c>
+      <c r="C192" t="s">
+        <v>120</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B193" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B194" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C194">
-        <v>1990</v>
+        <v>125</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B195" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C195">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B196" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F195" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B196" t="s">
-        <v>117</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D196" s="4"/>
       <c r="F196" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B197" s="1" t="s">
-        <v>106</v>
+      <c r="B197" t="s">
+        <v>117</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="F197" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B198" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B199" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E199" t="s">
         <v>287</v>
       </c>
     </row>

--- a/Interactive Entertainment.xlsx
+++ b/Interactive Entertainment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE6F7C0-D290-B247-AE5B-6BA8A80A3B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8527DEB2-9ECF-3A41-AB7E-8B1DE159D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43220" yWindow="-4840" windowWidth="21600" windowHeight="18880" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
+    <workbookView xWindow="-43140" yWindow="-940" windowWidth="21600" windowHeight="18880" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Studios" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="336">
   <si>
     <t>Nightdive Studios</t>
   </si>
@@ -1090,6 +1090,9 @@
   </si>
   <si>
     <t>Clash Royale</t>
+  </si>
+  <si>
+    <t>Wizard 101</t>
   </si>
 </sst>
 </file>
@@ -1676,13 +1679,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8CD114-2202-4E0E-9C28-26870C4C4139}">
-  <dimension ref="B2:K199"/>
+  <dimension ref="B2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3159,203 +3162,198 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B155" s="5" t="s">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>335</v>
+      </c>
+      <c r="G154" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B156" s="5" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B156" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H156" s="8">
-        <v>760</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B157" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C157" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
+      <c r="E157" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F157" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H157" s="8">
-        <v>495</v>
+        <v>760</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B158" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D158" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G158" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H158" s="8">
-        <v>414</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B159" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D159" s="3"/>
-      <c r="E159" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E159" s="1"/>
       <c r="F159" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G159" s="1"/>
       <c r="H159" s="8">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B160" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="H160" s="8">
-        <v>370</v>
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B161" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H161" s="8">
-        <v>238</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B162" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H162" s="8">
-        <v>60</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B163" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H163" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H163" s="8">
+        <v>60</v>
+      </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B164" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="12"/>
-      <c r="G164" s="1" t="s">
-        <v>45</v>
+      <c r="G164" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H164" s="8"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="B165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="12"/>
-      <c r="G165" s="1"/>
+      <c r="G165" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H165" s="8"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B166" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="12"/>
-      <c r="G166" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G166" s="1"/>
       <c r="H166" s="8"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B167" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3368,7 +3366,7 @@
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B168" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3381,18 +3379,20 @@
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B169" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="12"/>
-      <c r="G169" s="1"/>
+      <c r="G169" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H169" s="8"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B170" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3403,55 +3403,55 @@
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B171" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="12"/>
-      <c r="G171" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G171" s="1"/>
       <c r="H171" s="8"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B172" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="12"/>
-      <c r="G172" s="1"/>
+      <c r="G172" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H172" s="8"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B173" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="12"/>
-      <c r="G173" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G173" s="1"/>
       <c r="H173" s="8"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B174" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="12"/>
-      <c r="G174" s="1"/>
+      <c r="G174" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H174" s="8"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B175" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B176" s="1" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B177" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B179" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B180" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B181" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B182" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B183" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -3550,33 +3550,33 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B184" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C184" s="1">
-        <v>1987</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="E184" s="1"/>
       <c r="F184" s="12"/>
       <c r="G184" s="1"/>
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B185" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C185" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1987</v>
+      </c>
       <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
+      <c r="E185" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F185" s="12"/>
       <c r="G185" s="1"/>
       <c r="H185" s="8"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B186" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -3587,28 +3587,31 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B187" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="8"/>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B188" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B189" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C188">
+      <c r="C189">
         <v>1997</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B190" t="s">
-        <v>122</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>124</v>
@@ -3616,66 +3619,74 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
-        <v>119</v>
-      </c>
-      <c r="C192" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B193" s="1" t="s">
-        <v>105</v>
+      <c r="B193" t="s">
+        <v>119</v>
+      </c>
+      <c r="C193" t="s">
+        <v>120</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B194" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B195" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C195">
-        <v>1990</v>
+        <v>125</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B196" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C196">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B197" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F196" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B197" t="s">
-        <v>117</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D197" s="4"/>
       <c r="F197" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B198" s="1" t="s">
-        <v>106</v>
+      <c r="B198" t="s">
+        <v>117</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="F198" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B199" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B200" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E200" t="s">
         <v>287</v>
       </c>
     </row>

--- a/Interactive Entertainment.xlsx
+++ b/Interactive Entertainment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE6F7C0-D290-B247-AE5B-6BA8A80A3B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE590C2D-DF1C-4C91-A2EF-945279BF051E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43220" yWindow="-4840" windowWidth="21600" windowHeight="18880" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
+    <workbookView xWindow="12465" yWindow="2595" windowWidth="27075" windowHeight="17250" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Studios" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>tc={7DFDC712-AD36-244C-80C0-51008993A0FA}</author>
   </authors>
   <commentList>
-    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 US 8/22/1995</t>
       </text>
     </comment>
-    <comment ref="H81" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+    <comment ref="H82" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Average monthly players</t>
       </text>
     </comment>
-    <comment ref="H83" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+    <comment ref="H84" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</t>
       </text>
     </comment>
-    <comment ref="H94" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+    <comment ref="H97" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="344">
   <si>
     <t>Nightdive Studios</t>
   </si>
@@ -1090,6 +1090,33 @@
   </si>
   <si>
     <t>Clash Royale</t>
+  </si>
+  <si>
+    <t>Windows, Xbox Series X/S</t>
+  </si>
+  <si>
+    <t>PC, PS4, Windows, Xbox One, PS5, Xbox Series X/S</t>
+  </si>
+  <si>
+    <t>The Witcher 3: Wild Hunt - Blood and Wine</t>
+  </si>
+  <si>
+    <t>Borderlands 3</t>
+  </si>
+  <si>
+    <t>Marvel's Spider-Man Remastered</t>
+  </si>
+  <si>
+    <t>Sea of Stars</t>
+  </si>
+  <si>
+    <t>Sunkenland</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Stellaris</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -1198,6 +1225,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,17 +1551,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F23" dT="2023-08-09T22:55:56.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
+  <threadedComment ref="F24" dT="2023-08-09T22:55:56.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{FAF289D2-C39B-42A0-86D4-4CD8367FE77F}">
     <text>Japan 3/11/1995
 US 8/22/1995</text>
   </threadedComment>
-  <threadedComment ref="H81" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+  <threadedComment ref="H82" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
     <text>Average monthly players</text>
   </threadedComment>
-  <threadedComment ref="H83" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+  <threadedComment ref="H84" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
     <text>https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</text>
   </threadedComment>
-  <threadedComment ref="H94" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+  <threadedComment ref="H97" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
     <text>Average monthly players</text>
   </threadedComment>
 </ThreadedComments>
@@ -1545,22 +1575,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>272</v>
       </c>
@@ -1568,7 +1598,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>324</v>
       </c>
@@ -1579,17 +1609,17 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>331</v>
       </c>
@@ -1600,52 +1630,52 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>329</v>
       </c>
@@ -1653,7 +1683,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>289</v>
       </c>
@@ -1661,7 +1691,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>136</v>
       </c>
@@ -1676,28 +1706,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8CD114-2202-4E0E-9C28-26870C4C4139}">
-  <dimension ref="B2:K199"/>
+  <dimension ref="B2:K207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="7"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="7"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1759,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>237</v>
       </c>
@@ -1746,7 +1776,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>215</v>
       </c>
@@ -1754,7 +1784,7 @@
         <v>42402</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>167</v>
       </c>
@@ -1768,12 +1798,15 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F6" s="9">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1790,7 +1823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>304</v>
       </c>
@@ -1810,13 +1843,15 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F9" s="9">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>150</v>
       </c>
@@ -1830,7 +1865,7 @@
         <v>40834</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>138</v>
       </c>
@@ -1847,7 +1882,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>236</v>
       </c>
@@ -1855,7 +1890,7 @@
         <v>41489</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>196</v>
       </c>
@@ -1863,330 +1898,351 @@
         <v>41987</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>223</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>165</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>202</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="19">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>322</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>305</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>285</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>294</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K23" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>133</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>34769</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="7">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>334</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>238</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>136</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>33482</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>280</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>40442</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="K27" t="s">
+      <c r="G28" s="2"/>
+      <c r="K28" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>228</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>162</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+      <c r="F30" s="9">
+        <v>41142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F32" s="9">
+        <v>44175</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+      <c r="F35" s="9">
+        <v>42535</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>184</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>324</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>155</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>325</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>42984</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G37" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>256</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H38" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>299</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F41" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>110</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>110</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>34313</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>267</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H42" s="7">
         <v>3.5</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>188</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>255</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>41464</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="7">
         <v>165</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="8">
-        <v>20.5</v>
-      </c>
-      <c r="I45">
-        <v>59.99</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1"/>
       <c r="H46" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+        <v>20.5</v>
+      </c>
+      <c r="I46">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="12"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H47" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2195,40 +2251,40 @@
       <c r="G48" s="1"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="8">
-        <v>10</v>
-      </c>
-      <c r="J49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G49" s="1"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="8">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2237,9 +2293,9 @@
       <c r="G51" s="1"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2248,9 +2304,9 @@
       <c r="G52" s="1"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2259,120 +2315,117 @@
       <c r="G53" s="1"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>159</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>38272</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>297</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>303</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K58" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>206</v>
       </c>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>265</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="H59" s="7">
+      <c r="F60" s="9"/>
+      <c r="H60" s="7">
         <v>250</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I60" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>191</v>
       </c>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>168</v>
       </c>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B62" t="s">
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>306</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>157</v>
-      </c>
-      <c r="C64" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" s="9">
-        <v>37186</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
-        <v>146</v>
       </c>
       <c r="C65" t="s">
         <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F65" s="9">
-        <v>39567</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+        <v>37186</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
         <v>158</v>
@@ -2381,83 +2434,86 @@
         <v>148</v>
       </c>
       <c r="F66" s="9">
+        <v>39567</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="9">
         <v>41534</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="7">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>251</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H68" s="7">
         <v>9.4</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>268</v>
       </c>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>253</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="7">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>28</v>
-      </c>
-      <c r="C71" t="s">
-        <v>255</v>
-      </c>
-      <c r="H71" s="7">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
-        <v>264</v>
       </c>
       <c r="C72" t="s">
         <v>255</v>
       </c>
       <c r="H72" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" t="s">
+        <v>255</v>
+      </c>
+      <c r="H73" s="7">
         <v>6.5</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2466,9 +2522,9 @@
       <c r="G75" s="1"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2477,1003 +2533,1008 @@
       <c r="G76" s="1"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="13" t="s">
-        <v>296</v>
-      </c>
+      <c r="F77" s="12"/>
       <c r="G77" s="1"/>
       <c r="H77" s="8"/>
-      <c r="K77" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="12"/>
+      <c r="F78" s="13" t="s">
+        <v>296</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="8"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K78" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="12"/>
+      <c r="F79" s="16">
+        <v>44967</v>
+      </c>
       <c r="G79" s="1"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>27</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>26</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>36</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H82" s="7">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>52</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>247</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>45058</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>248</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="7">
         <v>18.5</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>152</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>148</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>39748</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H84" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>174</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="H84" s="7">
+      <c r="F85" s="9">
+        <v>44603</v>
+      </c>
+      <c r="H85" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+      <c r="F86" s="9">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>254</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="H86" s="7">
+      <c r="F87" s="9"/>
+      <c r="H87" s="7">
         <v>2.9940000000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>270</v>
       </c>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>339</v>
+      </c>
+      <c r="F90" s="9">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>342</v>
+      </c>
+      <c r="F96" s="9">
+        <v>42594</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>205</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C97" t="s">
         <v>260</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F97" s="9">
         <v>44838</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H97" s="7">
         <v>25</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I97" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>173</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C98" t="s">
         <v>259</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E98" t="s">
         <v>140</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F98" s="9">
         <v>41570</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H98" s="7">
         <v>50</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I98" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B98" t="s">
+      <c r="F100" s="9">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B101" t="s">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B104" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>276</v>
+      </c>
+      <c r="F110" s="9">
+        <v>40959</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" t="s">
+        <v>148</v>
+      </c>
+      <c r="F111" s="9">
+        <v>40316</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>175</v>
+      </c>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" s="9">
+        <v>38650</v>
+      </c>
+      <c r="G114" t="s">
+        <v>248</v>
+      </c>
+      <c r="H114" s="7">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F115" s="14">
+        <v>38363</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H115" s="7">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" t="s">
+        <v>257</v>
+      </c>
+      <c r="E117" t="s">
+        <v>109</v>
+      </c>
+      <c r="F117" s="9">
+        <v>41619</v>
+      </c>
+      <c r="G117" t="s">
+        <v>144</v>
+      </c>
+      <c r="H117" s="7">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>340</v>
+      </c>
+      <c r="F120" s="9">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F127" s="12"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F129" s="16">
+        <v>28581</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="8"/>
+      <c r="J129" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H130" s="8"/>
+      <c r="J130" t="s">
+        <v>316</v>
+      </c>
+      <c r="K130" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" t="s">
+        <v>52</v>
+      </c>
+      <c r="E131" t="s">
+        <v>247</v>
+      </c>
+      <c r="F131" s="9">
+        <v>44813</v>
+      </c>
+      <c r="H131" s="7">
+        <v>10.67</v>
+      </c>
+      <c r="J131" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>311</v>
+      </c>
+      <c r="C132" t="s">
+        <v>312</v>
+      </c>
+      <c r="E132" t="s">
+        <v>140</v>
+      </c>
+      <c r="F132" s="9">
+        <v>44097</v>
+      </c>
+      <c r="J132" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" t="s">
+        <v>272</v>
+      </c>
+      <c r="D134" t="s">
+        <v>272</v>
+      </c>
+      <c r="E134" t="s">
+        <v>335</v>
+      </c>
+      <c r="F134" s="9">
+        <v>45175</v>
+      </c>
+      <c r="G134" t="s">
+        <v>46</v>
+      </c>
+      <c r="I134">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>343</v>
+      </c>
+      <c r="F137" s="9">
+        <v>42499</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>341</v>
+      </c>
+      <c r="F139" s="9">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>181</v>
+      </c>
+      <c r="F141" s="9">
+        <v>39365</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>308</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>142</v>
+      </c>
+      <c r="C144" t="s">
+        <v>143</v>
+      </c>
+      <c r="E144" t="s">
+        <v>140</v>
+      </c>
+      <c r="F144" s="9">
+        <v>40679</v>
+      </c>
+      <c r="G144" t="s">
+        <v>144</v>
+      </c>
+      <c r="H144" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>164</v>
+      </c>
+      <c r="F145" s="9">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>243</v>
+      </c>
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B105" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B106" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B107" t="s">
-        <v>276</v>
-      </c>
-      <c r="F107" s="9">
-        <v>40959</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B108" t="s">
-        <v>153</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F147" s="9">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>154</v>
+      </c>
+      <c r="C148" t="s">
+        <v>155</v>
+      </c>
+      <c r="E148" t="s">
+        <v>156</v>
+      </c>
+      <c r="F148" s="9">
+        <v>37192</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>197</v>
+      </c>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>217</v>
+      </c>
+      <c r="F150" s="9"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="E151" t="s">
         <v>148</v>
       </c>
-      <c r="F108" s="9">
-        <v>40316</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B109" t="s">
-        <v>214</v>
-      </c>
-      <c r="F109" s="9"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B110" t="s">
-        <v>175</v>
-      </c>
-      <c r="F110" s="9"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>116</v>
-      </c>
-      <c r="E111" t="s">
-        <v>156</v>
-      </c>
-      <c r="F111" s="9">
-        <v>38650</v>
-      </c>
-      <c r="G111" t="s">
-        <v>248</v>
-      </c>
-      <c r="H111" s="7">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F112" s="14">
-        <v>38363</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H112" s="7">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B113" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="6"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
-        <v>37</v>
-      </c>
-      <c r="C114" t="s">
-        <v>257</v>
-      </c>
-      <c r="E114" t="s">
-        <v>109</v>
-      </c>
-      <c r="F114" s="9">
-        <v>41619</v>
-      </c>
-      <c r="G114" t="s">
-        <v>144</v>
-      </c>
-      <c r="H114" s="7">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B117" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B118" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B119" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B121" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B122" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B123" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B124" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="8"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B125" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F125" s="16">
-        <v>28581</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H125" s="8"/>
-      <c r="J125" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B126" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H126" s="8"/>
-      <c r="J126" t="s">
-        <v>316</v>
-      </c>
-      <c r="K126" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B127" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="F151" s="9">
+        <v>40099</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>220</v>
+      </c>
+      <c r="F152" s="9"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>212</v>
+      </c>
+      <c r="F153" s="9"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>177</v>
+      </c>
+      <c r="F154" s="9">
+        <v>41501</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>185</v>
+      </c>
+      <c r="F155" s="9">
+        <v>41358</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C158" t="s">
+        <v>260</v>
+      </c>
+      <c r="E158" t="s">
+        <v>140</v>
+      </c>
+      <c r="F158" s="9">
+        <v>38314</v>
+      </c>
+      <c r="G158" t="s">
+        <v>263</v>
+      </c>
+      <c r="H158" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J158" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B163" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B164" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D127" t="s">
-        <v>52</v>
-      </c>
-      <c r="E127" t="s">
-        <v>247</v>
-      </c>
-      <c r="F127" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H127" s="7">
-        <v>10.67</v>
-      </c>
-      <c r="J127" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B128" t="s">
-        <v>311</v>
-      </c>
-      <c r="C128" t="s">
-        <v>312</v>
-      </c>
-      <c r="E128" t="s">
-        <v>140</v>
-      </c>
-      <c r="F128" s="9">
-        <v>44097</v>
-      </c>
-      <c r="J128" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B129" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B131" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B132" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B133" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B136" t="s">
-        <v>308</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B137" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B138" t="s">
-        <v>142</v>
-      </c>
-      <c r="C138" t="s">
-        <v>143</v>
-      </c>
-      <c r="E138" t="s">
-        <v>140</v>
-      </c>
-      <c r="F138" s="9">
-        <v>40679</v>
-      </c>
-      <c r="G138" t="s">
-        <v>144</v>
-      </c>
-      <c r="H138" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B139" t="s">
-        <v>164</v>
-      </c>
-      <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B140" t="s">
-        <v>243</v>
-      </c>
-      <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B141" t="s">
-        <v>154</v>
-      </c>
-      <c r="C141" t="s">
-        <v>155</v>
-      </c>
-      <c r="E141" t="s">
-        <v>156</v>
-      </c>
-      <c r="F141" s="9">
-        <v>37192</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B142" t="s">
-        <v>197</v>
-      </c>
-      <c r="F142" s="9"/>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B143" t="s">
-        <v>217</v>
-      </c>
-      <c r="F143" s="9"/>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B144" t="s">
-        <v>149</v>
-      </c>
-      <c r="E144" t="s">
-        <v>148</v>
-      </c>
-      <c r="F144" s="9">
-        <v>40099</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B145" t="s">
-        <v>220</v>
-      </c>
-      <c r="F145" s="9"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B146" t="s">
-        <v>212</v>
-      </c>
-      <c r="F146" s="9"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B147" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B148" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B149" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B150" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C150" t="s">
-        <v>260</v>
-      </c>
-      <c r="E150" t="s">
-        <v>140</v>
-      </c>
-      <c r="F150" s="9">
-        <v>38314</v>
-      </c>
-      <c r="G150" t="s">
-        <v>263</v>
-      </c>
-      <c r="H150" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J150" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B151" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B152" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B153" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B155" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B156" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F156" s="12" t="s">
+      <c r="F164" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="G164" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H156" s="8">
+      <c r="H164" s="8">
         <v>760</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B157" s="1" t="s">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H157" s="8">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B158" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G158" s="1"/>
-      <c r="H158" s="8">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B159" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H159" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B160" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H160" s="8">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B161" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F161" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H161" s="8">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B162" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D162" s="3"/>
-      <c r="E162" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F162" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H162" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B163" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H163" s="8"/>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B164" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="8"/>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F165" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H165" s="8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D166" s="3"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H166" s="8"/>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F166" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H167" s="8"/>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H167" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G168" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H168" s="8"/>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="H168" s="8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="8"/>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H169" s="8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="8"/>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H170" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="12"/>
-      <c r="G171" s="1" t="s">
-        <v>115</v>
+      <c r="G171" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C172" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="12"/>
-      <c r="G172" s="1"/>
+      <c r="G172" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B173" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="12"/>
-      <c r="G173" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G173" s="1"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="12"/>
-      <c r="G174" s="1"/>
+      <c r="G174" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="12"/>
-      <c r="G175" s="1"/>
+      <c r="G175" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="12"/>
-      <c r="G176" s="1"/>
+      <c r="G176" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3482,9 +3543,9 @@
       <c r="G177" s="1"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3493,20 +3554,22 @@
       <c r="G178" s="1"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="12"/>
-      <c r="G179" s="1"/>
+      <c r="G179" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3515,20 +3578,22 @@
       <c r="G180" s="1"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="12"/>
-      <c r="G181" s="1"/>
+      <c r="G181" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3537,9 +3602,9 @@
       <c r="G182" s="1"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -3548,24 +3613,20 @@
       <c r="G183" s="1"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C184" s="1">
-        <v>1987</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="E184" s="1"/>
       <c r="F184" s="12"/>
       <c r="G184" s="1"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -3574,9 +3635,9 @@
       <c r="G185" s="1"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -3585,97 +3646,189 @@
       <c r="G186" s="1"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="8"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="8"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="8"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="8"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="8"/>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1987</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F192" s="12"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="8"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="8"/>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="8"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B188" s="1" t="s">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C188">
+      <c r="C196">
         <v>1997</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B190" t="s">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
         <v>122</v>
       </c>
-      <c r="F190" s="4" t="s">
+      <c r="F198" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B191" t="s">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
         <v>123</v>
       </c>
-      <c r="F191" s="4" t="s">
+      <c r="F199" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B192" t="s">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
         <v>119</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C200" t="s">
         <v>120</v>
       </c>
-      <c r="F192" s="4" t="s">
+      <c r="F200" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B193" s="1" t="s">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B194" s="1" t="s">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F202" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B195" s="1" t="s">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B203" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C195">
+      <c r="C203">
         <v>1990</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B196" s="1" t="s">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F196" s="4" t="s">
+      <c r="F204" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B197" t="s">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
         <v>117</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C205" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D197" s="4"/>
-      <c r="F197" s="4" t="s">
+      <c r="D205" s="4"/>
+      <c r="F205" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B198" s="1" t="s">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B199" s="1" t="s">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E207" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3693,39 +3846,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>98</v>
       </c>
@@ -3746,19 +3899,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -3776,64 +3929,64 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>97</v>
       </c>

--- a/Interactive Entertainment.xlsx
+++ b/Interactive Entertainment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41ED2C8B-406C-4B39-B7F3-F73E6AA6092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E255155B-8ACF-4DFA-8FCF-B9DC466BC6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
+    <workbookView xWindow="9225" yWindow="1500" windowWidth="27135" windowHeight="19875" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Studios" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 US 8/22/1995</t>
       </text>
     </comment>
-    <comment ref="H82" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+    <comment ref="H85" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Average monthly players</t>
       </text>
     </comment>
-    <comment ref="H84" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+    <comment ref="H89" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</t>
       </text>
     </comment>
-    <comment ref="H97" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+    <comment ref="H102" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="361">
   <si>
     <t>Nightdive Studios</t>
   </si>
@@ -1117,6 +1117,57 @@
   </si>
   <si>
     <t>Stellaris</t>
+  </si>
+  <si>
+    <t>Tibia</t>
+  </si>
+  <si>
+    <t>Civilization VI</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Ocarina of Time</t>
+  </si>
+  <si>
+    <t>SoulCalibur</t>
+  </si>
+  <si>
+    <t>Dreamcast</t>
+  </si>
+  <si>
+    <t>Super Mario Galaxy</t>
+  </si>
+  <si>
+    <t>Super Mario Galaxy 2</t>
+  </si>
+  <si>
+    <t>Tony Hawk's Pro Skater 2</t>
+  </si>
+  <si>
+    <t>Dicey Dungeons</t>
+  </si>
+  <si>
+    <t>PC, iOS, Switch</t>
+  </si>
+  <si>
+    <t>Divinity: Original Sin II - Definitive Edition</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Breath of the Wild</t>
+  </si>
+  <si>
+    <t>Switch, Wii U</t>
+  </si>
+  <si>
+    <t>N64</t>
+  </si>
+  <si>
+    <t>More than 200 people worked on Ocarina with $12m budget.</t>
+  </si>
+  <si>
+    <t>PS4, Xbox 1, Windows, Switch, iOS</t>
+  </si>
+  <si>
+    <t>Larian Studios Games</t>
   </si>
 </sst>
 </file>
@@ -1552,13 +1603,13 @@
     <text>Japan 3/11/1995
 US 8/22/1995</text>
   </threadedComment>
-  <threadedComment ref="H82" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+  <threadedComment ref="H85" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
     <text>Average monthly players</text>
   </threadedComment>
-  <threadedComment ref="H84" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+  <threadedComment ref="H89" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
     <text>https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</text>
   </threadedComment>
-  <threadedComment ref="H97" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+  <threadedComment ref="H102" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
     <text>Average monthly players</text>
   </threadedComment>
 </ThreadedComments>
@@ -1703,21 +1754,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8CD114-2202-4E0E-9C28-26870C4C4139}">
-  <dimension ref="B2:K207"/>
+  <dimension ref="B2:K216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="7"/>
@@ -2031,257 +2083,253 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>228</v>
+        <v>345</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="9">
-        <v>41142</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="9">
+        <v>41142</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>336</v>
-      </c>
-      <c r="F32" s="9">
-        <v>44175</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>224</v>
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F33" s="9">
+        <v>44175</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="9">
-        <v>42535</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>235</v>
+        <v>182</v>
+      </c>
+      <c r="F36" s="9">
+        <v>42535</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" t="s">
-        <v>324</v>
-      </c>
-      <c r="D37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" t="s">
-        <v>325</v>
-      </c>
-      <c r="F37" s="10">
-        <v>42984</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="I37" t="s">
-        <v>256</v>
-      </c>
-      <c r="J37" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>327</v>
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" t="s">
+        <v>325</v>
+      </c>
+      <c r="F38" s="10">
+        <v>42984</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>218</v>
+        <v>12</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>299</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>300</v>
+        <v>352</v>
+      </c>
+      <c r="E41" t="s">
+        <v>353</v>
+      </c>
+      <c r="F41" s="9">
+        <v>43690</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>359</v>
       </c>
       <c r="F42" s="9">
-        <v>34313</v>
+        <v>43343</v>
       </c>
       <c r="G42" t="s">
-        <v>267</v>
-      </c>
-      <c r="H42" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="J42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" t="s">
-        <v>255</v>
-      </c>
-      <c r="F43" s="9">
-        <v>41464</v>
-      </c>
-      <c r="H43" s="7">
-        <v>165</v>
-      </c>
-      <c r="I43" t="s">
-        <v>256</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>240</v>
+        <v>299</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="9">
+        <v>34313</v>
+      </c>
+      <c r="G45" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="9">
+        <v>41464</v>
+      </c>
+      <c r="H46" s="7">
+        <v>165</v>
+      </c>
+      <c r="I46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="8">
-        <v>20.5</v>
-      </c>
-      <c r="I46">
-        <v>59.99</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="12"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8">
+        <v>20.5</v>
+      </c>
+      <c r="I49">
+        <v>59.99</v>
+      </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="8">
-        <v>10</v>
-      </c>
-      <c r="J50" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2292,7 +2340,7 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2303,18 +2351,27 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F53" s="12"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="8"/>
+      <c r="G53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="8">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2324,255 +2381,248 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="9">
-        <v>38272</v>
-      </c>
+      <c r="B55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>192</v>
-      </c>
-      <c r="F56" s="9"/>
+      <c r="B56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>210</v>
-      </c>
-      <c r="F57" s="9"/>
+      <c r="B57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G58" t="s">
-        <v>303</v>
-      </c>
-      <c r="K58" t="s">
-        <v>298</v>
+        <v>159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="9">
+        <v>38272</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="H60" s="7">
-        <v>250</v>
-      </c>
-      <c r="I60" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>191</v>
-      </c>
-      <c r="F61" s="9"/>
+        <v>297</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G61" t="s">
+        <v>303</v>
+      </c>
+      <c r="K61" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>306</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>307</v>
+        <v>265</v>
+      </c>
+      <c r="C63" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="H63" s="7">
+        <v>250</v>
+      </c>
+      <c r="I63" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>157</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C68" t="s">
         <v>158</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E68" t="s">
         <v>156</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F68" s="9">
         <v>37186</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>146</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C69" t="s">
         <v>158</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E69" t="s">
         <v>148</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F69" s="9">
         <v>39567</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>147</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>158</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E70" t="s">
         <v>148</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F70" s="9">
         <v>41534</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H70" s="7">
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>251</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F71" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H71" s="7">
         <v>9.4</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>268</v>
       </c>
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>253</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H74" s="7">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>28</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" t="s">
         <v>255</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H75" s="7">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>264</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C76" t="s">
         <v>255</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H76" s="7">
         <v>6.5</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="13" t="s">
-        <v>296</v>
-      </c>
+      <c r="F78" s="12"/>
       <c r="G78" s="1"/>
       <c r="H78" s="8"/>
-      <c r="K78" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="16">
-        <v>44967</v>
-      </c>
+      <c r="F79" s="12"/>
       <c r="G79" s="1"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2581,1017 +2631,1047 @@
       <c r="G80" s="1"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="8"/>
+      <c r="K81" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="16">
+        <v>44967</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>27</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C84" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H84" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>36</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H85" s="7">
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>355</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" t="s">
+        <v>356</v>
+      </c>
+      <c r="F86" s="9">
+        <v>42797</v>
+      </c>
+      <c r="G86" t="s">
+        <v>248</v>
+      </c>
+      <c r="H86" s="7">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>346</v>
+      </c>
+      <c r="C87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" t="s">
+        <v>357</v>
+      </c>
+      <c r="F87" s="9">
+        <v>36120</v>
+      </c>
+      <c r="G87" t="s">
+        <v>248</v>
+      </c>
+      <c r="H87" s="7">
+        <f>1.14+7.6</f>
+        <v>8.74</v>
+      </c>
+      <c r="K87" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>246</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C88" t="s">
         <v>52</v>
       </c>
-      <c r="E83" t="s">
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" t="s">
         <v>247</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F88" s="9">
         <v>45058</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G88" t="s">
         <v>248</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H88" s="7">
         <v>18.5</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>152</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E89" t="s">
         <v>148</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F89" s="9">
         <v>39748</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H89" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>174</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F90" s="9">
         <v>44603</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H90" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>170</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F91" s="9">
         <v>45155</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>254</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="H87" s="7">
+      <c r="F92" s="9"/>
+      <c r="H92" s="7">
         <v>2.9940000000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>270</v>
       </c>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>339</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F95" s="9">
         <v>44785</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>342</v>
-      </c>
-      <c r="F96" s="9">
-        <v>42594</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" t="s">
-        <v>260</v>
-      </c>
-      <c r="F97" s="9">
-        <v>44838</v>
-      </c>
-      <c r="H97" s="7">
-        <v>25</v>
-      </c>
-      <c r="I97" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" t="s">
-        <v>259</v>
-      </c>
-      <c r="E98" t="s">
-        <v>140</v>
-      </c>
-      <c r="F98" s="9">
-        <v>41570</v>
-      </c>
-      <c r="H98" s="7">
-        <v>50</v>
-      </c>
-      <c r="I98" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>219</v>
-      </c>
-      <c r="F100" s="9">
-        <v>45190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>187</v>
+        <v>342</v>
+      </c>
+      <c r="F101" s="9">
+        <v>42594</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>284</v>
+        <v>205</v>
+      </c>
+      <c r="C102" t="s">
+        <v>260</v>
+      </c>
+      <c r="F102" s="9">
+        <v>44838</v>
+      </c>
+      <c r="H102" s="7">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>213</v>
+        <v>173</v>
+      </c>
+      <c r="C103" t="s">
+        <v>259</v>
+      </c>
+      <c r="E103" t="s">
+        <v>140</v>
+      </c>
+      <c r="F103" s="9">
+        <v>41570</v>
+      </c>
+      <c r="H103" s="7">
+        <v>50</v>
+      </c>
+      <c r="I103" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="F105" s="9">
+        <v>45190</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>283</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>276</v>
-      </c>
-      <c r="F110" s="9">
-        <v>40959</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>153</v>
-      </c>
-      <c r="E111" t="s">
-        <v>148</v>
-      </c>
-      <c r="F111" s="9">
-        <v>40316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>214</v>
-      </c>
-      <c r="F112" s="9"/>
+        <v>242</v>
+      </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F113" s="9"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>116</v>
-      </c>
-      <c r="E114" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="F114" s="9">
-        <v>38650</v>
-      </c>
-      <c r="G114" t="s">
-        <v>248</v>
-      </c>
-      <c r="H114" s="7">
-        <v>12.3</v>
+        <v>40959</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F115" s="14">
-        <v>38363</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H115" s="7">
-        <v>12.3</v>
+      <c r="B115" t="s">
+        <v>153</v>
+      </c>
+      <c r="E115" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115" s="9">
+        <v>40316</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="6"/>
+      <c r="B116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F116" s="9"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>37</v>
-      </c>
-      <c r="C117" t="s">
-        <v>257</v>
-      </c>
-      <c r="E117" t="s">
-        <v>109</v>
-      </c>
-      <c r="F117" s="9">
-        <v>41619</v>
-      </c>
-      <c r="G117" t="s">
-        <v>144</v>
-      </c>
-      <c r="H117" s="7">
-        <v>12.4</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F117" s="9"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" t="s">
+        <v>156</v>
+      </c>
+      <c r="F118" s="9">
+        <v>38650</v>
+      </c>
+      <c r="G118" t="s">
+        <v>248</v>
+      </c>
+      <c r="H118" s="7">
+        <v>12.3</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>225</v>
+      <c r="B119" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" s="14">
+        <v>38363</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H119" s="7">
+        <v>12.3</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>340</v>
-      </c>
-      <c r="F120" s="9">
-        <v>45166</v>
-      </c>
+      <c r="B120" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>229</v>
+        <v>37</v>
+      </c>
+      <c r="C121" t="s">
+        <v>257</v>
+      </c>
+      <c r="E121" t="s">
+        <v>109</v>
+      </c>
+      <c r="F121" s="9">
+        <v>41619</v>
+      </c>
+      <c r="G121" t="s">
+        <v>144</v>
+      </c>
+      <c r="H121" s="7">
+        <v>12.4</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>20</v>
+        <v>340</v>
+      </c>
+      <c r="F124" s="9">
+        <v>45166</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1" t="s">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F127" s="12"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
+      <c r="F131" s="12"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="8"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="8"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F133" s="16">
+        <v>36411</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F129" s="16">
+      <c r="F134" s="16">
         <v>28581</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H129" s="8"/>
-      <c r="J129" t="s">
+      <c r="H134" s="8"/>
+      <c r="J134" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F130" s="13" t="s">
+      <c r="F135" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H130" s="8"/>
-      <c r="J130" t="s">
+      <c r="H135" s="8"/>
+      <c r="J135" t="s">
         <v>316</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K135" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" t="s">
-        <v>52</v>
-      </c>
-      <c r="D131" t="s">
-        <v>52</v>
-      </c>
-      <c r="E131" t="s">
-        <v>247</v>
-      </c>
-      <c r="F131" s="9">
-        <v>44813</v>
-      </c>
-      <c r="H131" s="7">
-        <v>10.67</v>
-      </c>
-      <c r="J131" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>311</v>
-      </c>
-      <c r="C132" t="s">
-        <v>312</v>
-      </c>
-      <c r="E132" t="s">
-        <v>140</v>
-      </c>
-      <c r="F132" s="9">
-        <v>44097</v>
-      </c>
-      <c r="J132" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>163</v>
-      </c>
-      <c r="C134" t="s">
-        <v>272</v>
-      </c>
-      <c r="D134" t="s">
-        <v>272</v>
-      </c>
-      <c r="E134" t="s">
-        <v>335</v>
-      </c>
-      <c r="F134" s="9">
-        <v>45175</v>
-      </c>
-      <c r="G134" t="s">
-        <v>46</v>
-      </c>
-      <c r="I134">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" t="s">
+        <v>247</v>
+      </c>
+      <c r="F136" s="9">
+        <v>44813</v>
+      </c>
+      <c r="H136" s="7">
+        <v>10.67</v>
+      </c>
+      <c r="J136" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>343</v>
+        <v>311</v>
+      </c>
+      <c r="C137" t="s">
+        <v>312</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
       </c>
       <c r="F137" s="9">
-        <v>42499</v>
+        <v>44097</v>
+      </c>
+      <c r="J137" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>341</v>
+        <v>163</v>
+      </c>
+      <c r="C139" t="s">
+        <v>272</v>
+      </c>
+      <c r="D139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E139" t="s">
+        <v>335</v>
       </c>
       <c r="F139" s="9">
-        <v>45163</v>
+        <v>45175</v>
+      </c>
+      <c r="G139" t="s">
+        <v>46</v>
+      </c>
+      <c r="I139">
+        <v>69.989999999999995</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>181</v>
-      </c>
-      <c r="F141" s="9">
-        <v>39365</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>308</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>309</v>
+        <v>343</v>
+      </c>
+      <c r="F142" s="9">
+        <v>42499</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
+        <v>341</v>
+      </c>
+      <c r="F144" s="9">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>349</v>
+      </c>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>350</v>
+      </c>
+      <c r="F146" s="9">
+        <v>40321</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>181</v>
+      </c>
+      <c r="F148" s="9">
+        <v>39365</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>308</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
         <v>142</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C151" t="s">
         <v>143</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E151" t="s">
         <v>140</v>
       </c>
-      <c r="F144" s="9">
+      <c r="F151" s="9">
         <v>40679</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G151" t="s">
         <v>144</v>
       </c>
-      <c r="H144" s="7">
+      <c r="H151" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
         <v>164</v>
       </c>
-      <c r="F145" s="9">
+      <c r="F152" s="9">
         <v>45156</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>344</v>
+      </c>
+      <c r="F153" s="9"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
         <v>243</v>
       </c>
-      <c r="F146" s="9"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
+      <c r="F154" s="9"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
         <v>179</v>
       </c>
-      <c r="F147" s="9">
+      <c r="F155" s="9">
         <v>42339</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>351</v>
+      </c>
+      <c r="E156" t="s">
+        <v>109</v>
+      </c>
+      <c r="F156" s="9">
+        <v>36824</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
         <v>154</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C157" t="s">
         <v>155</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E157" t="s">
         <v>156</v>
       </c>
-      <c r="F148" s="9">
+      <c r="F157" s="9">
         <v>37192</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
         <v>197</v>
       </c>
-      <c r="F149" s="9"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
+      <c r="F158" s="9"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
         <v>217</v>
       </c>
-      <c r="F150" s="9"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
+      <c r="F159" s="9"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
         <v>149</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E160" t="s">
         <v>148</v>
       </c>
-      <c r="F151" s="9">
+      <c r="F160" s="9">
         <v>40099</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
         <v>220</v>
       </c>
-      <c r="F152" s="9"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
+      <c r="F161" s="9"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
         <v>212</v>
       </c>
-      <c r="F153" s="9"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
+      <c r="F162" s="9"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
         <v>177</v>
       </c>
-      <c r="F154" s="9">
+      <c r="F163" s="9">
         <v>41501</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
         <v>185</v>
       </c>
-      <c r="F155" s="9">
+      <c r="F164" s="9">
         <v>41358</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="1" t="s">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" s="1" t="s">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="1" t="s">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C167" t="s">
         <v>260</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E167" t="s">
         <v>140</v>
       </c>
-      <c r="F158" s="9">
+      <c r="F167" s="9">
         <v>38314</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G167" t="s">
         <v>263</v>
       </c>
-      <c r="H158" s="7">
+      <c r="H167" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J167" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B159" s="1" t="s">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B163" s="5" t="s">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B172" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B164" s="1" t="s">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1" t="s">
+      <c r="D173" s="1"/>
+      <c r="E173" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F164" s="12" t="s">
+      <c r="F173" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G173" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H164" s="8">
+      <c r="H173" s="8">
         <v>760</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B165" s="1" t="s">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H165" s="8">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B166" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G166" s="1"/>
-      <c r="H166" s="8">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B167" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D167" s="3"/>
-      <c r="E167" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H167" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B168" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F168" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H168" s="8">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B169" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F169" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H169" s="8">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B170" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H170" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B171" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H171" s="8"/>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B172" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H172" s="8"/>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="8"/>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B174" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H174" s="8"/>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F174" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H174" s="8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" s="3"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H175" s="8"/>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F175" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G175" s="1"/>
+      <c r="H175" s="8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H176" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H176" s="8">
+        <v>400</v>
+      </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H177" s="8">
+        <v>370</v>
+      </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H178" s="8">
+        <v>238</v>
+      </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="G179" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H179" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="H179" s="8">
+        <v>60</v>
+      </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="12"/>
-      <c r="G180" s="1"/>
+      <c r="G180" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H180" s="8"/>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C181" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="12"/>
       <c r="G181" s="1" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="H181" s="8"/>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B182" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -3601,40 +3681,46 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="12"/>
-      <c r="G183" s="1"/>
+      <c r="G183" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H183" s="8"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="12"/>
-      <c r="G184" s="1"/>
+      <c r="G184" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="12"/>
-      <c r="G185" s="1"/>
+      <c r="G185" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H185" s="8"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -3645,7 +3731,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -3656,18 +3742,20 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="12"/>
-      <c r="G188" s="1"/>
+      <c r="G188" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H188" s="8"/>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -3678,18 +3766,20 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="12"/>
-      <c r="G190" s="1"/>
+      <c r="G190" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H190" s="8"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -3700,22 +3790,18 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C192" s="1">
-        <v>1987</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="E192" s="1"/>
       <c r="F192" s="12"/>
       <c r="G192" s="1"/>
       <c r="H192" s="8"/>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -3726,7 +3812,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -3737,95 +3823,198 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="8"/>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C196">
-        <v>1997</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="8"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="8"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
-        <v>122</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="B198" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="8"/>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
-        <v>123</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="B199" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>119</v>
-      </c>
-      <c r="C200" t="s">
-        <v>120</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="B200" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="8"/>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1987</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F201" s="12"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="8"/>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="8"/>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C203">
-        <v>1990</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="8"/>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C205">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>122</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>123</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>119</v>
+      </c>
+      <c r="C209" t="s">
+        <v>120</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C212">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F204" s="4" t="s">
+      <c r="F213" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B205" t="s">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
         <v>117</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C214" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D205" s="4"/>
-      <c r="F205" s="4" t="s">
+      <c r="D214" s="4"/>
+      <c r="F214" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B206" s="1" t="s">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B207" s="1" t="s">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E216" t="s">
         <v>287</v>
       </c>
     </row>

--- a/Interactive Entertainment.xlsx
+++ b/Interactive Entertainment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E255155B-8ACF-4DFA-8FCF-B9DC466BC6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E26283-6B29-E740-B291-20602A475CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="1500" windowWidth="27135" windowHeight="19875" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
+    <workbookView xWindow="-42700" yWindow="-11000" windowWidth="20780" windowHeight="17800" activeTab="1" xr2:uid="{E90A7435-EBD3-4704-A00F-C207B51588E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Studios" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 US 8/22/1995</t>
       </text>
     </comment>
-    <comment ref="H85" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+    <comment ref="H86" authorId="1" shapeId="0" xr:uid="{660DE7CB-7906-904C-8350-EEA9459997DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Average monthly players</t>
       </text>
     </comment>
-    <comment ref="H89" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+    <comment ref="H90" authorId="2" shapeId="0" xr:uid="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</t>
       </text>
     </comment>
-    <comment ref="H102" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+    <comment ref="H103" authorId="3" shapeId="0" xr:uid="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="363">
   <si>
     <t>Nightdive Studios</t>
   </si>
@@ -1168,6 +1168,12 @@
   </si>
   <si>
     <t>Larian Studios Games</t>
+  </si>
+  <si>
+    <t>Goldeneye</t>
+  </si>
+  <si>
+    <t>Rare</t>
   </si>
 </sst>
 </file>
@@ -1603,13 +1609,13 @@
     <text>Japan 3/11/1995
 US 8/22/1995</text>
   </threadedComment>
-  <threadedComment ref="H85" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
+  <threadedComment ref="H86" dT="2023-08-25T18:46:50.55" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{660DE7CB-7906-904C-8350-EEA9459997DA}">
     <text>Average monthly players</text>
   </threadedComment>
-  <threadedComment ref="H89" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
+  <threadedComment ref="H90" dT="2023-08-25T18:39:27.38" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{5112C7F8-DD67-084D-B277-2C5896EA34B7}">
     <text>https://www.eurogamer.net/littlebigplanet-has-sold-1-3m-units</text>
   </threadedComment>
-  <threadedComment ref="H102" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
+  <threadedComment ref="H103" dT="2023-08-25T19:23:31.50" personId="{77446BE4-0278-43C7-8AA9-BB27431CCF15}" id="{7DFDC712-AD36-244C-80C0-51008993A0FA}">
     <text>Average monthly players</text>
   </threadedComment>
 </ThreadedComments>
@@ -1623,22 +1629,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>272</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>324</v>
       </c>
@@ -1657,17 +1663,17 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>331</v>
       </c>
@@ -1678,52 +1684,52 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>329</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>289</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>136</v>
       </c>
@@ -1754,29 +1760,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8CD114-2202-4E0E-9C28-26870C4C4139}">
-  <dimension ref="B2:K216"/>
+  <dimension ref="B2:K217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="7"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="7"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>237</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>215</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>42402</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>167</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>166</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>304</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>161</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>150</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>40834</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>138</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>236</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>41489</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>196</v>
       </c>
@@ -1947,25 +1953,25 @@
         <v>41987</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>223</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>165</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>202</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>338</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>322</v>
       </c>
@@ -1984,30 +1990,30 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>285</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>239</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>230</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>294</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -2038,21 +2044,21 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>334</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>238</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>29</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>280</v>
       </c>
@@ -2081,21 +2087,21 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>345</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>228</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>162</v>
       </c>
@@ -2106,12 +2112,12 @@
         <v>41142</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -2134,17 +2140,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>182</v>
       </c>
@@ -2152,12 +2158,12 @@
         <v>42535</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>184</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>12</v>
       </c>
@@ -2194,12 +2200,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>352</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>354</v>
       </c>
@@ -2230,12 +2236,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>299</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>188</v>
       </c>
@@ -2286,17 +2292,17 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>198</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>271</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>241</v>
       </c>
@@ -2338,7 +2344,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>234</v>
       </c>
@@ -2349,7 +2355,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>47</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>245</v>
       </c>
@@ -2380,7 +2386,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>207</v>
       </c>
@@ -2391,7 +2397,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>180</v>
       </c>
@@ -2402,7 +2408,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>178</v>
       </c>
@@ -2413,7 +2419,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>159</v>
       </c>
@@ -2424,19 +2430,19 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>192</v>
       </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>210</v>
       </c>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>297</v>
       </c>
@@ -2450,13 +2456,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>206</v>
       </c>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>265</v>
       </c>
@@ -2471,19 +2477,19 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>191</v>
       </c>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>168</v>
       </c>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>306</v>
       </c>
@@ -2491,42 +2497,42 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
+        <v>361</v>
+      </c>
+      <c r="C68" t="s">
+        <v>362</v>
+      </c>
+      <c r="E68" t="s">
+        <v>357</v>
+      </c>
+      <c r="H68" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
         <v>157</v>
-      </c>
-      <c r="C68" t="s">
-        <v>158</v>
-      </c>
-      <c r="E68" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="9">
-        <v>37186</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>146</v>
       </c>
       <c r="C69" t="s">
         <v>158</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F69" s="9">
-        <v>39567</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+        <v>37186</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
         <v>158</v>
@@ -2535,83 +2541,86 @@
         <v>148</v>
       </c>
       <c r="F70" s="9">
+        <v>39567</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="9">
         <v>41534</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="7">
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
         <v>251</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F72" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H72" s="7">
         <v>9.4</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
         <v>268</v>
       </c>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
         <v>253</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="7">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>28</v>
-      </c>
-      <c r="C75" t="s">
-        <v>255</v>
-      </c>
-      <c r="H75" s="7">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>264</v>
       </c>
       <c r="C76" t="s">
         <v>255</v>
       </c>
       <c r="H76" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" t="s">
+        <v>255</v>
+      </c>
+      <c r="H77" s="7">
         <v>6.5</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2620,9 +2629,9 @@
       <c r="G79" s="1"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2631,91 +2640,79 @@
       <c r="G80" s="1"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="13" t="s">
-        <v>296</v>
-      </c>
+      <c r="F81" s="12"/>
       <c r="G81" s="1"/>
       <c r="H81" s="8"/>
-      <c r="K81" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="16">
-        <v>44967</v>
+      <c r="F82" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="8"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K82" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="12"/>
+      <c r="F83" s="16">
+        <v>44967</v>
+      </c>
       <c r="G83" s="1"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
         <v>27</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>26</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>36</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H86" s="7">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
         <v>355</v>
-      </c>
-      <c r="C86" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" t="s">
-        <v>52</v>
-      </c>
-      <c r="E86" t="s">
-        <v>356</v>
-      </c>
-      <c r="F86" s="9">
-        <v>42797</v>
-      </c>
-      <c r="G86" t="s">
-        <v>248</v>
-      </c>
-      <c r="H86" s="7">
-        <v>30.65</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>346</v>
       </c>
       <c r="C87" t="s">
         <v>52</v>
@@ -2724,977 +2721,987 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F87" s="9">
-        <v>36120</v>
+        <v>42797</v>
       </c>
       <c r="G87" t="s">
         <v>248</v>
       </c>
       <c r="H87" s="7">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>346</v>
+      </c>
+      <c r="C88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" t="s">
+        <v>357</v>
+      </c>
+      <c r="F88" s="9">
+        <v>36120</v>
+      </c>
+      <c r="G88" t="s">
+        <v>248</v>
+      </c>
+      <c r="H88" s="7">
         <f>1.14+7.6</f>
         <v>8.74</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K88" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
         <v>246</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>52</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>52</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>247</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>45058</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G89" t="s">
         <v>248</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H89" s="7">
         <v>18.5</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
         <v>152</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>148</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>39748</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H90" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>44603</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H91" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
         <v>170</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>45155</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
         <v>254</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="H92" s="7">
+      <c r="F93" s="9"/>
+      <c r="H93" s="7">
         <v>2.9940000000000002</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
         <v>270</v>
       </c>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
         <v>339</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F96" s="9">
         <v>44785</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
         <v>342</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F102" s="9">
         <v>42594</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
         <v>205</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>260</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F103" s="9">
         <v>44838</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H103" s="7">
         <v>25</v>
-      </c>
-      <c r="I102" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" t="s">
-        <v>259</v>
-      </c>
-      <c r="E103" t="s">
-        <v>140</v>
-      </c>
-      <c r="F103" s="9">
-        <v>41570</v>
-      </c>
-      <c r="H103" s="7">
-        <v>50</v>
       </c>
       <c r="I103" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" t="s">
+        <v>259</v>
+      </c>
+      <c r="E104" t="s">
+        <v>140</v>
+      </c>
+      <c r="F104" s="9">
+        <v>41570</v>
+      </c>
+      <c r="H104" s="7">
+        <v>50</v>
+      </c>
+      <c r="I104" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
         <v>219</v>
       </c>
-      <c r="F105" s="9">
+      <c r="F106" s="9">
         <v>45190</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
         <v>276</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F115" s="9">
         <v>40959</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
         <v>153</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E116" t="s">
         <v>148</v>
       </c>
-      <c r="F115" s="9">
+      <c r="F116" s="9">
         <v>40316</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
         <v>214</v>
       </c>
-      <c r="F116" s="9"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
+      <c r="F117" s="9"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
         <v>175</v>
       </c>
-      <c r="F117" s="9"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>116</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>156</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F119" s="9">
         <v>38650</v>
       </c>
-      <c r="G118" t="s">
-        <v>248</v>
-      </c>
-      <c r="H118" s="7">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F119" s="14">
-        <v>38363</v>
-      </c>
-      <c r="G119" s="6" t="s">
+      <c r="G119" t="s">
         <v>248</v>
       </c>
       <c r="H119" s="7">
         <v>12.3</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F120" s="14">
+        <v>38363</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H120" s="7">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B121" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="6"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
         <v>37</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>257</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>109</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F122" s="9">
         <v>41619</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G122" t="s">
         <v>144</v>
       </c>
-      <c r="H121" s="7">
+      <c r="H122" s="7">
         <v>12.4</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
         <v>340</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F125" s="9">
         <v>45166</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B132" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F131" s="12"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F132" s="12"/>
       <c r="G132" s="1"/>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B133" s="1" t="s">
-        <v>347</v>
+        <v>199</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F133" s="16">
-        <v>36411</v>
-      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="12"/>
       <c r="G133" s="1"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B134" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F134" s="16">
+        <v>36411</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="8"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B135" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F134" s="16">
+      <c r="F135" s="16">
         <v>28581</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H134" s="8"/>
-      <c r="J134" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B135" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>302</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H135" s="8"/>
       <c r="J135" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B136" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H136" s="8"/>
+      <c r="J136" t="s">
         <v>316</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K136" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
         <v>19</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>52</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>52</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E137" t="s">
         <v>247</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F137" s="9">
         <v>44813</v>
       </c>
-      <c r="H136" s="7">
+      <c r="H137" s="7">
         <v>10.67</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J137" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
         <v>311</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>312</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E138" t="s">
         <v>140</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F138" s="9">
         <v>44097</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J138" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
         <v>163</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>272</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>272</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>335</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F140" s="9">
         <v>45175</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G140" t="s">
         <v>46</v>
       </c>
-      <c r="I139">
+      <c r="I140">
         <v>69.989999999999995</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
         <v>343</v>
       </c>
-      <c r="F142" s="9">
+      <c r="F143" s="9">
         <v>42499</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
         <v>341</v>
       </c>
-      <c r="F144" s="9">
+      <c r="F145" s="9">
         <v>45163</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
         <v>349</v>
       </c>
-      <c r="F145" s="9"/>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
         <v>350</v>
       </c>
-      <c r="F146" s="9">
+      <c r="F147" s="9">
         <v>40321</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
         <v>181</v>
       </c>
-      <c r="F148" s="9">
+      <c r="F149" s="9">
         <v>39365</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B150" t="s">
         <v>308</v>
       </c>
-      <c r="F149" s="15" t="s">
+      <c r="F150" s="15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
         <v>142</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>143</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E152" t="s">
         <v>140</v>
       </c>
-      <c r="F151" s="9">
+      <c r="F152" s="9">
         <v>40679</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G152" t="s">
         <v>144</v>
       </c>
-      <c r="H151" s="7">
+      <c r="H152" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
         <v>164</v>
       </c>
-      <c r="F152" s="9">
+      <c r="F153" s="9">
         <v>45156</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
         <v>344</v>
       </c>
-      <c r="F153" s="9"/>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
+      <c r="F154" s="9"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B155" t="s">
         <v>243</v>
       </c>
-      <c r="F154" s="9"/>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
+      <c r="F155" s="9"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B156" t="s">
         <v>179</v>
       </c>
-      <c r="F155" s="9">
+      <c r="F156" s="9">
         <v>42339</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B157" t="s">
         <v>351</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E157" t="s">
         <v>109</v>
       </c>
-      <c r="F156" s="9">
+      <c r="F157" s="9">
         <v>36824</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B158" t="s">
         <v>154</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>155</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E158" t="s">
         <v>156</v>
       </c>
-      <c r="F157" s="9">
+      <c r="F158" s="9">
         <v>37192</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B159" t="s">
         <v>197</v>
       </c>
-      <c r="F158" s="9"/>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
+      <c r="F159" s="9"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B160" t="s">
         <v>217</v>
       </c>
-      <c r="F159" s="9"/>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
+      <c r="F160" s="9"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
         <v>149</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E161" t="s">
         <v>148</v>
       </c>
-      <c r="F160" s="9">
+      <c r="F161" s="9">
         <v>40099</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B162" t="s">
         <v>220</v>
       </c>
-      <c r="F161" s="9"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
+      <c r="F162" s="9"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B163" t="s">
         <v>212</v>
       </c>
-      <c r="F162" s="9"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
+      <c r="F163" s="9"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
         <v>177</v>
       </c>
-      <c r="F163" s="9">
+      <c r="F164" s="9">
         <v>41501</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B165" t="s">
         <v>185</v>
       </c>
-      <c r="F164" s="9">
+      <c r="F165" s="9">
         <v>41358</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B165" s="1" t="s">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B166" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B166" s="1" t="s">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B167" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B167" s="1" t="s">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B168" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>260</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E168" t="s">
         <v>140</v>
       </c>
-      <c r="F167" s="9">
+      <c r="F168" s="9">
         <v>38314</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G168" t="s">
         <v>263</v>
       </c>
-      <c r="H167" s="7">
+      <c r="H168" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J168" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B168" s="1" t="s">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B169" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B170" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B171" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B172" s="5" t="s">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B173" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B173" s="1" t="s">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B174" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1" t="s">
+      <c r="D174" s="1"/>
+      <c r="E174" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F173" s="12" t="s">
+      <c r="F174" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G174" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H173" s="8">
+      <c r="H174" s="8">
         <v>760</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B174" s="1" t="s">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B175" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H174" s="8">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B175" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D175" s="3"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H175" s="8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B176" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G175" s="1"/>
-      <c r="H175" s="8">
+      <c r="G176" s="1"/>
+      <c r="H176" s="8">
         <v>414</v>
       </c>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B176" s="1" t="s">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B177" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F176" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H176" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B177" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="H177" s="8">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H178" s="8">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B179" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H179" s="8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F179" s="12" t="s">
+      <c r="F180" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H179" s="8">
+      <c r="H180" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B180" s="1" t="s">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B181" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H180" s="8"/>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B181" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="12"/>
-      <c r="G181" s="1" t="s">
-        <v>45</v>
+      <c r="G181" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="12"/>
-      <c r="G182" s="1"/>
+      <c r="G182" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B183" s="1" t="s">
-        <v>114</v>
-      </c>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="12"/>
-      <c r="G183" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G183" s="1"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B184" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -3705,9 +3712,9 @@
       </c>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B185" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -3718,20 +3725,22 @@
       </c>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B186" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="12"/>
-      <c r="G186" s="1"/>
+      <c r="G186" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B187" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -3740,57 +3749,57 @@
       <c r="G187" s="1"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B188" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="12"/>
-      <c r="G188" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G188" s="1"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B189" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="12"/>
-      <c r="G189" s="1"/>
+      <c r="G189" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B190" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="12"/>
-      <c r="G190" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G190" s="1"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B191" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="12"/>
-      <c r="G191" s="1"/>
+      <c r="G191" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B192" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -3799,9 +3808,9 @@
       <c r="G192" s="1"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B193" s="1" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -3810,9 +3819,9 @@
       <c r="G193" s="1"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B194" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -3821,9 +3830,9 @@
       <c r="G194" s="1"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B195" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -3832,9 +3841,9 @@
       <c r="G195" s="1"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B196" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -3843,9 +3852,9 @@
       <c r="G196" s="1"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B197" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -3854,9 +3863,9 @@
       <c r="G197" s="1"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B198" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -3865,9 +3874,9 @@
       <c r="G198" s="1"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B199" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -3876,9 +3885,9 @@
       <c r="G199" s="1"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B200" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -3887,35 +3896,35 @@
       <c r="G200" s="1"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B201" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C201" s="1">
-        <v>1987</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C201" s="1"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="E201" s="1"/>
       <c r="F201" s="12"/>
       <c r="G201" s="1"/>
       <c r="H201" s="8"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B202" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C202" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1987</v>
+      </c>
       <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
+      <c r="E202" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F202" s="12"/>
       <c r="G202" s="1"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B203" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -3924,97 +3933,108 @@
       <c r="G203" s="1"/>
       <c r="H203" s="8"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B204" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="8"/>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B205" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B205" s="1" t="s">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B206" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C205">
+      <c r="C206">
         <v>1997</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B207" t="s">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B208" t="s">
         <v>122</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
-        <v>123</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
-        <v>119</v>
-      </c>
-      <c r="C209" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B210" s="1" t="s">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B210" t="s">
+        <v>119</v>
+      </c>
+      <c r="C210" t="s">
+        <v>120</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B211" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B211" s="1" t="s">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B212" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F211" s="4" t="s">
+      <c r="F212" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B212" s="1" t="s">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B213" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C212">
+      <c r="C213">
         <v>1990</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B213" s="1" t="s">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B214" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F213" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
-        <v>117</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D214" s="4"/>
       <c r="F214" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B215" s="1" t="s">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B215" t="s">
+        <v>117</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D215" s="4"/>
+      <c r="F215" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B216" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B216" s="1" t="s">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B217" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E217" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4032,39 +4052,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>98</v>
       </c>
@@ -4085,19 +4105,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -4115,64 +4135,64 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>97</v>
       </c>
